--- a/calcium_analysis_checked_videos.xlsx
+++ b/calcium_analysis_checked_videos.xlsx
@@ -15,17 +15,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">n!$A$1:$C$27</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$547</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$H$547</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$H$547</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$A$2:$H$547</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$A$1:$H$547</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$A$2:$H$547</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">n!$A$1:$C$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">n!$A$1:$C$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">n!$A$1:$C$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">n!$A$1:$C$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">n!$A$1:$C$27</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$H$547</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$H$547</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3131,7 +3122,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3154,135 +3145,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3303,7 +3172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -3311,23 +3180,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3351,56 +3205,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3425,91 +3231,67 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3518,44 +3300,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -3567,7 +3333,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -3583,7 +3349,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -3618,10 +3384,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T589"/>
+  <dimension ref="A1:AMJ589"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3633,7 +3399,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="4.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="7.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="115.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="10" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,7 +3469,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="n">
@@ -3741,7 +3508,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="n">
@@ -3780,7 +3547,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="n">
@@ -3819,7 +3586,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="n">
@@ -3858,7 +3625,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -3897,7 +3664,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="n">
@@ -3936,7 +3703,7 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
@@ -3975,7 +3742,7 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
@@ -4014,7 +3781,7 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="n">
@@ -4053,7 +3820,7 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="n">
@@ -4092,7 +3859,7 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="n">
@@ -4131,7 +3898,7 @@
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="n">
@@ -4170,7 +3937,7 @@
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="n">
@@ -4209,7 +3976,7 @@
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="n">
@@ -4248,7 +4015,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="n">
@@ -4287,7 +4054,7 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="n">
@@ -4326,7 +4093,7 @@
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="n">
@@ -4365,7 +4132,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="n">
@@ -4404,7 +4171,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="n">
@@ -4443,7 +4210,7 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="n">
@@ -4482,7 +4249,7 @@
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="n">
@@ -4521,7 +4288,7 @@
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="n">
@@ -4560,7 +4327,7 @@
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
+      <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="n">
@@ -4599,7 +4366,7 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="n">
@@ -4638,7 +4405,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
+      <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="n">
@@ -4677,7 +4444,7 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
+      <c r="AMJ27" s="0"/>
     </row>
     <row r="28" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="n">
@@ -4716,7 +4483,7 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="n">
@@ -4755,7 +4522,7 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
+      <c r="AMJ29" s="0"/>
     </row>
     <row r="30" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="n">
@@ -4794,7 +4561,7 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="n">
@@ -4833,7 +4600,7 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
+      <c r="AMJ31" s="0"/>
     </row>
     <row r="32" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="n">
@@ -4872,7 +4639,7 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="n">
@@ -4911,7 +4678,7 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="n">
@@ -4950,7 +4717,7 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="n">
@@ -4989,7 +4756,7 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="9" t="n">
@@ -5028,7 +4795,7 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
+      <c r="AMJ36" s="0"/>
     </row>
     <row r="37" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="n">
@@ -5067,7 +4834,7 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="9" t="n">
@@ -5106,7 +4873,7 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="9" t="n">
@@ -5145,7 +4912,7 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="9" t="n">
@@ -5184,7 +4951,7 @@
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="9" t="n">
@@ -5223,7 +4990,7 @@
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="9" t="n">
@@ -5262,7 +5029,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
+      <c r="AMJ42" s="0"/>
     </row>
     <row r="43" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="n">
@@ -5301,7 +5068,7 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="9" t="n">
@@ -5340,7 +5107,7 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
+      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="n">
@@ -5379,7 +5146,7 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
@@ -5418,7 +5185,7 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
+      <c r="AMJ46" s="0"/>
     </row>
     <row r="47" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="n">
@@ -5457,7 +5224,7 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
+      <c r="AMJ47" s="0"/>
     </row>
     <row r="48" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
@@ -5496,7 +5263,7 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="n">
@@ -5535,7 +5302,7 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
+      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
@@ -5574,7 +5341,7 @@
       <c r="P50" s="9"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
+      <c r="AMJ50" s="0"/>
     </row>
     <row r="51" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="9" t="n">
@@ -5613,7 +5380,7 @@
       <c r="P51" s="9"/>
       <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
+      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="9" t="n">
@@ -5652,7 +5419,7 @@
       <c r="P52" s="9"/>
       <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="9" t="n">
@@ -5691,7 +5458,7 @@
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
+      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="9" t="n">
@@ -5730,7 +5497,7 @@
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="9" t="n">
@@ -5769,7 +5536,7 @@
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
+      <c r="AMJ55" s="0"/>
     </row>
     <row r="56" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="9" t="n">
@@ -5808,7 +5575,7 @@
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="9" t="n">
@@ -5847,7 +5614,7 @@
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
+      <c r="AMJ57" s="0"/>
     </row>
     <row r="58" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="9" t="n">
@@ -5886,7 +5653,7 @@
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="9" t="n">
@@ -5925,7 +5692,7 @@
       <c r="P59" s="9"/>
       <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="9" t="n">
@@ -5964,7 +5731,7 @@
       <c r="P60" s="9"/>
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
+      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="9" t="n">
@@ -6003,7 +5770,7 @@
       <c r="P61" s="9"/>
       <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
+      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="9" t="n">
@@ -6042,7 +5809,7 @@
       <c r="P62" s="9"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
+      <c r="AMJ62" s="0"/>
     </row>
     <row r="63" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="9" t="n">
@@ -6081,7 +5848,7 @@
       <c r="P63" s="9"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
+      <c r="AMJ63" s="0"/>
     </row>
     <row r="64" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="9" t="n">
@@ -6120,7 +5887,7 @@
       <c r="P64" s="9"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
+      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="9" t="n">
@@ -6159,7 +5926,7 @@
       <c r="P65" s="9"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
+      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="9" t="n">
@@ -6198,7 +5965,7 @@
       <c r="P66" s="9"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
+      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9" t="n">
@@ -6237,7 +6004,7 @@
       <c r="P67" s="9"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
+      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="9" t="n">
@@ -6276,7 +6043,7 @@
       <c r="P68" s="9"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
+      <c r="AMJ68" s="0"/>
     </row>
     <row r="69" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="9" t="n">
@@ -6315,7 +6082,7 @@
       <c r="P69" s="9"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="9" t="n">
@@ -6354,7 +6121,7 @@
       <c r="P70" s="9"/>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
+      <c r="AMJ70" s="0"/>
     </row>
     <row r="71" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="9" t="n">
@@ -6393,7 +6160,7 @@
       <c r="P71" s="9"/>
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
+      <c r="AMJ71" s="0"/>
     </row>
     <row r="72" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="9" t="n">
@@ -6432,7 +6199,7 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
+      <c r="AMJ72" s="0"/>
     </row>
     <row r="73" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="9" t="n">
@@ -6471,7 +6238,7 @@
       <c r="P73" s="9"/>
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
+      <c r="AMJ73" s="0"/>
     </row>
     <row r="74" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="9" t="n">
@@ -6510,7 +6277,7 @@
       <c r="P74" s="9"/>
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
+      <c r="AMJ74" s="0"/>
     </row>
     <row r="75" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="9" t="n">
@@ -6549,7 +6316,7 @@
       <c r="P75" s="9"/>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
+      <c r="AMJ75" s="0"/>
     </row>
     <row r="76" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="9" t="n">
@@ -6588,7 +6355,7 @@
       <c r="P76" s="9"/>
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
+      <c r="AMJ76" s="0"/>
     </row>
     <row r="77" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="9" t="n">
@@ -6627,7 +6394,7 @@
       <c r="P77" s="9"/>
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
+      <c r="AMJ77" s="0"/>
     </row>
     <row r="78" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="9" t="n">
@@ -6666,7 +6433,7 @@
       <c r="P78" s="9"/>
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
+      <c r="AMJ78" s="0"/>
     </row>
     <row r="79" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="9" t="n">
@@ -6705,7 +6472,7 @@
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
+      <c r="AMJ79" s="0"/>
     </row>
     <row r="80" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="9" t="n">
@@ -6744,7 +6511,7 @@
       <c r="P80" s="9"/>
       <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
+      <c r="AMJ80" s="0"/>
     </row>
     <row r="81" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="9" t="n">
@@ -6783,7 +6550,7 @@
       <c r="P81" s="9"/>
       <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
+      <c r="AMJ81" s="0"/>
     </row>
     <row r="82" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="n">
@@ -6822,7 +6589,7 @@
       <c r="P82" s="9"/>
       <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
+      <c r="AMJ82" s="0"/>
     </row>
     <row r="83" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="n">
@@ -6861,7 +6628,7 @@
       <c r="P83" s="9"/>
       <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
+      <c r="AMJ83" s="0"/>
     </row>
     <row r="84" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="n">
@@ -6900,7 +6667,7 @@
       <c r="P84" s="9"/>
       <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
+      <c r="AMJ84" s="0"/>
     </row>
     <row r="85" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="n">
@@ -6939,9 +6706,9 @@
       <c r="P85" s="9"/>
       <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-    </row>
-    <row r="86" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ85" s="0"/>
+    </row>
+    <row r="86" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="n">
         <v>2</v>
       </c>
@@ -6977,9 +6744,9 @@
       <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
       <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-    </row>
-    <row r="87" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ86" s="0"/>
+    </row>
+    <row r="87" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="11" t="n">
         <v>2</v>
       </c>
@@ -7015,9 +6782,9 @@
       <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
       <c r="S87" s="9"/>
-      <c r="T87" s="9"/>
-    </row>
-    <row r="88" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ87" s="0"/>
+    </row>
+    <row r="88" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11" t="n">
         <v>2</v>
       </c>
@@ -7053,9 +6820,9 @@
       <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
       <c r="S88" s="9"/>
-      <c r="T88" s="9"/>
-    </row>
-    <row r="89" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ88" s="0"/>
+    </row>
+    <row r="89" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="11" t="n">
         <v>2</v>
       </c>
@@ -7091,9 +6858,9 @@
       <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
       <c r="S89" s="9"/>
-      <c r="T89" s="9"/>
-    </row>
-    <row r="90" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ89" s="0"/>
+    </row>
+    <row r="90" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11" t="n">
         <v>2</v>
       </c>
@@ -7129,9 +6896,9 @@
       <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
       <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-    </row>
-    <row r="91" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ90" s="0"/>
+    </row>
+    <row r="91" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="n">
         <v>2</v>
       </c>
@@ -7167,9 +6934,9 @@
       <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
       <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-    </row>
-    <row r="92" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ91" s="0"/>
+    </row>
+    <row r="92" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11" t="n">
         <v>2</v>
       </c>
@@ -7205,9 +6972,9 @@
       <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
       <c r="S92" s="9"/>
-      <c r="T92" s="9"/>
-    </row>
-    <row r="93" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ92" s="0"/>
+    </row>
+    <row r="93" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="11" t="n">
         <v>2</v>
       </c>
@@ -7243,9 +7010,9 @@
       <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
       <c r="S93" s="9"/>
-      <c r="T93" s="9"/>
-    </row>
-    <row r="94" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ93" s="0"/>
+    </row>
+    <row r="94" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="n">
         <v>2</v>
       </c>
@@ -7281,9 +7048,9 @@
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
       <c r="S94" s="9"/>
-      <c r="T94" s="9"/>
-    </row>
-    <row r="95" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ94" s="0"/>
+    </row>
+    <row r="95" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="11" t="n">
         <v>2</v>
       </c>
@@ -7319,9 +7086,9 @@
       <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
       <c r="S95" s="9"/>
-      <c r="T95" s="9"/>
-    </row>
-    <row r="96" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ95" s="0"/>
+    </row>
+    <row r="96" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11" t="n">
         <v>2</v>
       </c>
@@ -7357,9 +7124,9 @@
       <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
       <c r="S96" s="9"/>
-      <c r="T96" s="9"/>
-    </row>
-    <row r="97" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ96" s="0"/>
+    </row>
+    <row r="97" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="n">
         <v>2</v>
       </c>
@@ -7395,9 +7162,9 @@
       <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
       <c r="S97" s="9"/>
-      <c r="T97" s="9"/>
-    </row>
-    <row r="98" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ97" s="0"/>
+    </row>
+    <row r="98" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11" t="n">
         <v>2</v>
       </c>
@@ -7433,9 +7200,9 @@
       <c r="Q98" s="9"/>
       <c r="R98" s="9"/>
       <c r="S98" s="9"/>
-      <c r="T98" s="9"/>
-    </row>
-    <row r="99" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ98" s="0"/>
+    </row>
+    <row r="99" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="11" t="n">
         <v>2</v>
       </c>
@@ -7471,9 +7238,9 @@
       <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
       <c r="S99" s="9"/>
-      <c r="T99" s="9"/>
-    </row>
-    <row r="100" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ99" s="0"/>
+    </row>
+    <row r="100" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11" t="n">
         <v>2</v>
       </c>
@@ -7509,9 +7276,9 @@
       <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
       <c r="S100" s="9"/>
-      <c r="T100" s="9"/>
-    </row>
-    <row r="101" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ100" s="0"/>
+    </row>
+    <row r="101" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="11" t="n">
         <v>2</v>
       </c>
@@ -7547,9 +7314,9 @@
       <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
       <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-    </row>
-    <row r="102" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ101" s="0"/>
+    </row>
+    <row r="102" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11" t="n">
         <v>2</v>
       </c>
@@ -7585,9 +7352,9 @@
       <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
       <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-    </row>
-    <row r="103" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ102" s="0"/>
+    </row>
+    <row r="103" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11" t="n">
         <v>2</v>
       </c>
@@ -7623,9 +7390,9 @@
       <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
       <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-    </row>
-    <row r="104" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ103" s="0"/>
+    </row>
+    <row r="104" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11" t="n">
         <v>2</v>
       </c>
@@ -7661,9 +7428,9 @@
       <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
       <c r="S104" s="9"/>
-      <c r="T104" s="9"/>
-    </row>
-    <row r="105" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ104" s="0"/>
+    </row>
+    <row r="105" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="11" t="n">
         <v>2</v>
       </c>
@@ -7699,9 +7466,9 @@
       <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
       <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-    </row>
-    <row r="106" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ105" s="0"/>
+    </row>
+    <row r="106" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11" t="n">
         <v>2</v>
       </c>
@@ -7737,9 +7504,9 @@
       <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
       <c r="S106" s="9"/>
-      <c r="T106" s="9"/>
-    </row>
-    <row r="107" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ106" s="0"/>
+    </row>
+    <row r="107" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="11" t="n">
         <v>2</v>
       </c>
@@ -7775,9 +7542,9 @@
       <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
       <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-    </row>
-    <row r="108" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ107" s="0"/>
+    </row>
+    <row r="108" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11" t="n">
         <v>2</v>
       </c>
@@ -7813,9 +7580,9 @@
       <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
       <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-    </row>
-    <row r="109" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ108" s="0"/>
+    </row>
+    <row r="109" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="11" t="n">
         <v>2</v>
       </c>
@@ -7851,9 +7618,9 @@
       <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
       <c r="S109" s="9"/>
-      <c r="T109" s="9"/>
-    </row>
-    <row r="110" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ109" s="0"/>
+    </row>
+    <row r="110" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11" t="n">
         <v>2</v>
       </c>
@@ -7889,9 +7656,9 @@
       <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
       <c r="S110" s="9"/>
-      <c r="T110" s="9"/>
-    </row>
-    <row r="111" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ110" s="0"/>
+    </row>
+    <row r="111" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="11" t="n">
         <v>2</v>
       </c>
@@ -7927,9 +7694,9 @@
       <c r="Q111" s="9"/>
       <c r="R111" s="9"/>
       <c r="S111" s="9"/>
-      <c r="T111" s="9"/>
-    </row>
-    <row r="112" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ111" s="0"/>
+    </row>
+    <row r="112" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11" t="n">
         <v>2</v>
       </c>
@@ -7965,9 +7732,9 @@
       <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
       <c r="S112" s="9"/>
-      <c r="T112" s="9"/>
-    </row>
-    <row r="113" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ112" s="0"/>
+    </row>
+    <row r="113" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="11" t="n">
         <v>2</v>
       </c>
@@ -8003,9 +7770,9 @@
       <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
-      <c r="T113" s="9"/>
-    </row>
-    <row r="114" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ113" s="0"/>
+    </row>
+    <row r="114" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11" t="n">
         <v>2</v>
       </c>
@@ -8041,9 +7808,9 @@
       <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
       <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-    </row>
-    <row r="115" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ114" s="0"/>
+    </row>
+    <row r="115" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="11" t="n">
         <v>2</v>
       </c>
@@ -8079,9 +7846,9 @@
       <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
       <c r="S115" s="9"/>
-      <c r="T115" s="9"/>
-    </row>
-    <row r="116" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ115" s="0"/>
+    </row>
+    <row r="116" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="11" t="n">
         <v>2</v>
       </c>
@@ -8117,9 +7884,9 @@
       <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
       <c r="S116" s="9"/>
-      <c r="T116" s="9"/>
-    </row>
-    <row r="117" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ116" s="0"/>
+    </row>
+    <row r="117" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="11" t="n">
         <v>2</v>
       </c>
@@ -8155,9 +7922,9 @@
       <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
       <c r="S117" s="9"/>
-      <c r="T117" s="9"/>
-    </row>
-    <row r="118" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ117" s="0"/>
+    </row>
+    <row r="118" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11" t="n">
         <v>2</v>
       </c>
@@ -8193,9 +7960,9 @@
       <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
       <c r="S118" s="9"/>
-      <c r="T118" s="9"/>
-    </row>
-    <row r="119" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ118" s="0"/>
+    </row>
+    <row r="119" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11" t="n">
         <v>2</v>
       </c>
@@ -8231,9 +7998,9 @@
       <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
       <c r="S119" s="9"/>
-      <c r="T119" s="9"/>
-    </row>
-    <row r="120" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ119" s="0"/>
+    </row>
+    <row r="120" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="n">
         <v>2</v>
       </c>
@@ -8269,9 +8036,9 @@
       <c r="Q120" s="9"/>
       <c r="R120" s="9"/>
       <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-    </row>
-    <row r="121" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ120" s="0"/>
+    </row>
+    <row r="121" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="n">
         <v>2</v>
       </c>
@@ -8307,9 +8074,9 @@
       <c r="Q121" s="9"/>
       <c r="R121" s="9"/>
       <c r="S121" s="9"/>
-      <c r="T121" s="9"/>
-    </row>
-    <row r="122" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ121" s="0"/>
+    </row>
+    <row r="122" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="n">
         <v>2</v>
       </c>
@@ -8345,9 +8112,9 @@
       <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
       <c r="S122" s="9"/>
-      <c r="T122" s="9"/>
-    </row>
-    <row r="123" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ122" s="0"/>
+    </row>
+    <row r="123" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="n">
         <v>2</v>
       </c>
@@ -8383,9 +8150,9 @@
       <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
       <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-    </row>
-    <row r="124" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ123" s="0"/>
+    </row>
+    <row r="124" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="n">
         <v>2</v>
       </c>
@@ -8421,9 +8188,9 @@
       <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
       <c r="S124" s="9"/>
-      <c r="T124" s="9"/>
-    </row>
-    <row r="125" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ124" s="0"/>
+    </row>
+    <row r="125" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="n">
         <v>2</v>
       </c>
@@ -8459,9 +8226,9 @@
       <c r="Q125" s="9"/>
       <c r="R125" s="9"/>
       <c r="S125" s="9"/>
-      <c r="T125" s="9"/>
-    </row>
-    <row r="126" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ125" s="0"/>
+    </row>
+    <row r="126" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="n">
         <v>2</v>
       </c>
@@ -8497,9 +8264,9 @@
       <c r="Q126" s="9"/>
       <c r="R126" s="9"/>
       <c r="S126" s="9"/>
-      <c r="T126" s="9"/>
-    </row>
-    <row r="127" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ126" s="0"/>
+    </row>
+    <row r="127" s="6" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="n">
         <v>2</v>
       </c>
@@ -8535,7 +8302,7 @@
       <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
       <c r="S127" s="9"/>
-      <c r="T127" s="9"/>
+      <c r="AMJ127" s="0"/>
     </row>
     <row r="128" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="12" t="n">
@@ -8565,6 +8332,7 @@
       <c r="I128" s="12" t="s">
         <v>241</v>
       </c>
+      <c r="AMJ128" s="0"/>
     </row>
     <row r="129" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="12" t="n">
@@ -8594,6 +8362,7 @@
       <c r="I129" s="12" t="s">
         <v>243</v>
       </c>
+      <c r="AMJ129" s="0"/>
     </row>
     <row r="130" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="12" t="n">
@@ -8623,6 +8392,7 @@
       <c r="I130" s="12" t="s">
         <v>245</v>
       </c>
+      <c r="AMJ130" s="0"/>
     </row>
     <row r="131" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="12" t="n">
@@ -8652,6 +8422,7 @@
       <c r="I131" s="15" t="s">
         <v>247</v>
       </c>
+      <c r="AMJ131" s="0"/>
     </row>
     <row r="132" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="12" t="n">
@@ -8681,6 +8452,7 @@
       <c r="I132" s="12" t="s">
         <v>249</v>
       </c>
+      <c r="AMJ132" s="0"/>
     </row>
     <row r="133" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="n">
@@ -8710,6 +8482,7 @@
       <c r="I133" s="12" t="s">
         <v>251</v>
       </c>
+      <c r="AMJ133" s="0"/>
     </row>
     <row r="134" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="12" t="n">
@@ -8739,6 +8512,7 @@
       <c r="I134" s="12" t="s">
         <v>253</v>
       </c>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="12" t="n">
@@ -8768,6 +8542,7 @@
       <c r="I135" s="12" t="s">
         <v>255</v>
       </c>
+      <c r="AMJ135" s="0"/>
     </row>
     <row r="136" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="12" t="n">
@@ -8797,6 +8572,7 @@
       <c r="I136" s="12" t="s">
         <v>257</v>
       </c>
+      <c r="AMJ136" s="0"/>
     </row>
     <row r="137" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="12" t="n">
@@ -8826,6 +8602,7 @@
       <c r="I137" s="12" t="s">
         <v>259</v>
       </c>
+      <c r="AMJ137" s="0"/>
     </row>
     <row r="138" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="12" t="n">
@@ -8855,6 +8632,7 @@
       <c r="I138" s="12" t="s">
         <v>261</v>
       </c>
+      <c r="AMJ138" s="0"/>
     </row>
     <row r="139" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="12" t="n">
@@ -8884,6 +8662,7 @@
       <c r="I139" s="12" t="s">
         <v>263</v>
       </c>
+      <c r="AMJ139" s="0"/>
     </row>
     <row r="140" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="12" t="n">
@@ -8913,6 +8692,7 @@
       <c r="I140" s="12" t="s">
         <v>265</v>
       </c>
+      <c r="AMJ140" s="0"/>
     </row>
     <row r="141" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="12" t="n">
@@ -8942,6 +8722,7 @@
       <c r="I141" s="12" t="s">
         <v>267</v>
       </c>
+      <c r="AMJ141" s="0"/>
     </row>
     <row r="142" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="n">
@@ -8971,6 +8752,7 @@
       <c r="I142" s="12" t="s">
         <v>269</v>
       </c>
+      <c r="AMJ142" s="0"/>
     </row>
     <row r="143" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="12" t="n">
@@ -9000,6 +8782,7 @@
       <c r="I143" s="12" t="s">
         <v>271</v>
       </c>
+      <c r="AMJ143" s="0"/>
     </row>
     <row r="144" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="12" t="n">
@@ -9029,6 +8812,7 @@
       <c r="I144" s="12" t="s">
         <v>273</v>
       </c>
+      <c r="AMJ144" s="0"/>
     </row>
     <row r="145" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="12" t="n">
@@ -9058,6 +8842,7 @@
       <c r="I145" s="12" t="s">
         <v>275</v>
       </c>
+      <c r="AMJ145" s="0"/>
     </row>
     <row r="146" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="12" t="n">
@@ -9087,6 +8872,7 @@
       <c r="I146" s="15" t="s">
         <v>277</v>
       </c>
+      <c r="AMJ146" s="0"/>
     </row>
     <row r="147" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="12" t="n">
@@ -9116,6 +8902,7 @@
       <c r="I147" s="12" t="s">
         <v>279</v>
       </c>
+      <c r="AMJ147" s="0"/>
     </row>
     <row r="148" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="12" t="n">
@@ -9145,6 +8932,7 @@
       <c r="I148" s="12" t="s">
         <v>281</v>
       </c>
+      <c r="AMJ148" s="0"/>
     </row>
     <row r="149" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="12" t="n">
@@ -9174,6 +8962,7 @@
       <c r="I149" s="12" t="s">
         <v>283</v>
       </c>
+      <c r="AMJ149" s="0"/>
     </row>
     <row r="150" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="12" t="n">
@@ -9203,6 +8992,7 @@
       <c r="I150" s="12" t="s">
         <v>285</v>
       </c>
+      <c r="AMJ150" s="0"/>
     </row>
     <row r="151" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="12" t="n">
@@ -9232,6 +9022,7 @@
       <c r="I151" s="12" t="s">
         <v>287</v>
       </c>
+      <c r="AMJ151" s="0"/>
     </row>
     <row r="152" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="12" t="n">
@@ -9261,6 +9052,7 @@
       <c r="I152" s="12" t="s">
         <v>289</v>
       </c>
+      <c r="AMJ152" s="0"/>
     </row>
     <row r="153" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="12" t="n">
@@ -9290,6 +9082,7 @@
       <c r="I153" s="12" t="s">
         <v>291</v>
       </c>
+      <c r="AMJ153" s="0"/>
     </row>
     <row r="154" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="12" t="n">
@@ -9319,6 +9112,7 @@
       <c r="I154" s="12" t="s">
         <v>293</v>
       </c>
+      <c r="AMJ154" s="0"/>
     </row>
     <row r="155" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="12" t="n">
@@ -9348,6 +9142,7 @@
       <c r="I155" s="12" t="s">
         <v>295</v>
       </c>
+      <c r="AMJ155" s="0"/>
     </row>
     <row r="156" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="12" t="n">
@@ -9377,6 +9172,7 @@
       <c r="I156" s="12" t="s">
         <v>297</v>
       </c>
+      <c r="AMJ156" s="0"/>
     </row>
     <row r="157" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="12" t="n">
@@ -9406,6 +9202,7 @@
       <c r="I157" s="12" t="s">
         <v>299</v>
       </c>
+      <c r="AMJ157" s="0"/>
     </row>
     <row r="158" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="12" t="n">
@@ -9435,6 +9232,7 @@
       <c r="I158" s="12" t="s">
         <v>301</v>
       </c>
+      <c r="AMJ158" s="0"/>
     </row>
     <row r="159" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="12" t="n">
@@ -9464,6 +9262,7 @@
       <c r="I159" s="12" t="s">
         <v>303</v>
       </c>
+      <c r="AMJ159" s="0"/>
     </row>
     <row r="160" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="12" t="n">
@@ -9493,6 +9292,7 @@
       <c r="I160" s="12" t="s">
         <v>305</v>
       </c>
+      <c r="AMJ160" s="0"/>
     </row>
     <row r="161" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="12" t="n">
@@ -9522,6 +9322,7 @@
       <c r="I161" s="12" t="s">
         <v>307</v>
       </c>
+      <c r="AMJ161" s="0"/>
     </row>
     <row r="162" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="12" t="n">
@@ -9551,6 +9352,7 @@
       <c r="I162" s="12" t="s">
         <v>309</v>
       </c>
+      <c r="AMJ162" s="0"/>
     </row>
     <row r="163" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="12" t="n">
@@ -9580,6 +9382,7 @@
       <c r="I163" s="12" t="s">
         <v>311</v>
       </c>
+      <c r="AMJ163" s="0"/>
     </row>
     <row r="164" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="12" t="n">
@@ -9609,6 +9412,7 @@
       <c r="I164" s="12" t="s">
         <v>313</v>
       </c>
+      <c r="AMJ164" s="0"/>
     </row>
     <row r="165" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="12" t="n">
@@ -9638,6 +9442,7 @@
       <c r="I165" s="12" t="s">
         <v>315</v>
       </c>
+      <c r="AMJ165" s="0"/>
     </row>
     <row r="166" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="12" t="n">
@@ -9667,6 +9472,7 @@
       <c r="I166" s="12" t="s">
         <v>317</v>
       </c>
+      <c r="AMJ166" s="0"/>
     </row>
     <row r="167" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="12" t="n">
@@ -9696,6 +9502,7 @@
       <c r="I167" s="12" t="s">
         <v>319</v>
       </c>
+      <c r="AMJ167" s="0"/>
     </row>
     <row r="168" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="12" t="n">
@@ -9725,6 +9532,7 @@
       <c r="I168" s="12" t="s">
         <v>321</v>
       </c>
+      <c r="AMJ168" s="0"/>
     </row>
     <row r="169" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="12" t="n">
@@ -9754,6 +9562,7 @@
       <c r="I169" s="12" t="s">
         <v>323</v>
       </c>
+      <c r="AMJ169" s="0"/>
     </row>
     <row r="170" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="12" t="n">
@@ -9783,6 +9592,7 @@
       <c r="I170" s="12" t="s">
         <v>325</v>
       </c>
+      <c r="AMJ170" s="0"/>
     </row>
     <row r="171" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="12" t="n">
@@ -9812,6 +9622,7 @@
       <c r="I171" s="12" t="s">
         <v>327</v>
       </c>
+      <c r="AMJ171" s="0"/>
     </row>
     <row r="172" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="12" t="n">
@@ -9841,6 +9652,7 @@
       <c r="I172" s="12" t="s">
         <v>329</v>
       </c>
+      <c r="AMJ172" s="0"/>
     </row>
     <row r="173" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="12" t="n">
@@ -9870,6 +9682,7 @@
       <c r="I173" s="12" t="s">
         <v>331</v>
       </c>
+      <c r="AMJ173" s="0"/>
     </row>
     <row r="174" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="12" t="n">
@@ -9899,6 +9712,7 @@
       <c r="I174" s="12" t="s">
         <v>333</v>
       </c>
+      <c r="AMJ174" s="0"/>
     </row>
     <row r="175" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="12" t="n">
@@ -9928,6 +9742,7 @@
       <c r="I175" s="12" t="s">
         <v>335</v>
       </c>
+      <c r="AMJ175" s="0"/>
     </row>
     <row r="176" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="12" t="n">
@@ -9957,6 +9772,7 @@
       <c r="I176" s="12" t="s">
         <v>337</v>
       </c>
+      <c r="AMJ176" s="0"/>
     </row>
     <row r="177" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="12" t="n">
@@ -9986,6 +9802,7 @@
       <c r="I177" s="12" t="s">
         <v>339</v>
       </c>
+      <c r="AMJ177" s="0"/>
     </row>
     <row r="178" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="12" t="n">
@@ -10015,6 +9832,7 @@
       <c r="I178" s="12" t="s">
         <v>341</v>
       </c>
+      <c r="AMJ178" s="0"/>
     </row>
     <row r="179" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="12" t="n">
@@ -10044,6 +9862,7 @@
       <c r="I179" s="12" t="s">
         <v>343</v>
       </c>
+      <c r="AMJ179" s="0"/>
     </row>
     <row r="180" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="12" t="n">
@@ -10073,6 +9892,7 @@
       <c r="I180" s="12" t="s">
         <v>345</v>
       </c>
+      <c r="AMJ180" s="0"/>
     </row>
     <row r="181" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="12" t="n">
@@ -10102,6 +9922,7 @@
       <c r="I181" s="12" t="s">
         <v>347</v>
       </c>
+      <c r="AMJ181" s="0"/>
     </row>
     <row r="182" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="12" t="n">
@@ -10131,6 +9952,7 @@
       <c r="I182" s="12" t="s">
         <v>349</v>
       </c>
+      <c r="AMJ182" s="0"/>
     </row>
     <row r="183" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="12" t="n">
@@ -10160,6 +9982,7 @@
       <c r="I183" s="12" t="s">
         <v>351</v>
       </c>
+      <c r="AMJ183" s="0"/>
     </row>
     <row r="184" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="12" t="n">
@@ -10189,6 +10012,7 @@
       <c r="I184" s="12" t="s">
         <v>353</v>
       </c>
+      <c r="AMJ184" s="0"/>
     </row>
     <row r="185" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="12" t="n">
@@ -10218,6 +10042,7 @@
       <c r="I185" s="12" t="s">
         <v>355</v>
       </c>
+      <c r="AMJ185" s="0"/>
     </row>
     <row r="186" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="12" t="n">
@@ -10247,6 +10072,7 @@
       <c r="I186" s="12" t="s">
         <v>357</v>
       </c>
+      <c r="AMJ186" s="0"/>
     </row>
     <row r="187" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="n">
@@ -10276,6 +10102,7 @@
       <c r="I187" s="12" t="s">
         <v>359</v>
       </c>
+      <c r="AMJ187" s="0"/>
     </row>
     <row r="188" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="12" t="n">
@@ -10305,6 +10132,7 @@
       <c r="I188" s="12" t="s">
         <v>361</v>
       </c>
+      <c r="AMJ188" s="0"/>
     </row>
     <row r="189" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="12" t="n">
@@ -10334,6 +10162,7 @@
       <c r="I189" s="12" t="s">
         <v>363</v>
       </c>
+      <c r="AMJ189" s="0"/>
     </row>
     <row r="190" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="12" t="n">
@@ -10363,6 +10192,7 @@
       <c r="I190" s="12" t="s">
         <v>365</v>
       </c>
+      <c r="AMJ190" s="0"/>
     </row>
     <row r="191" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="12" t="n">
@@ -10392,6 +10222,7 @@
       <c r="I191" s="12" t="s">
         <v>367</v>
       </c>
+      <c r="AMJ191" s="0"/>
     </row>
     <row r="192" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="12" t="n">
@@ -10421,6 +10252,7 @@
       <c r="I192" s="12" t="s">
         <v>369</v>
       </c>
+      <c r="AMJ192" s="0"/>
     </row>
     <row r="193" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="12" t="n">
@@ -10450,6 +10282,7 @@
       <c r="I193" s="12" t="s">
         <v>371</v>
       </c>
+      <c r="AMJ193" s="0"/>
     </row>
     <row r="194" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="12" t="n">
@@ -10479,6 +10312,7 @@
       <c r="I194" s="12" t="s">
         <v>373</v>
       </c>
+      <c r="AMJ194" s="0"/>
     </row>
     <row r="195" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="12" t="n">
@@ -10508,6 +10342,7 @@
       <c r="I195" s="12" t="s">
         <v>375</v>
       </c>
+      <c r="AMJ195" s="0"/>
     </row>
     <row r="196" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="12" t="n">
@@ -10537,6 +10372,7 @@
       <c r="I196" s="12" t="s">
         <v>377</v>
       </c>
+      <c r="AMJ196" s="0"/>
     </row>
     <row r="197" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="12" t="n">
@@ -10566,6 +10402,7 @@
       <c r="I197" s="12" t="s">
         <v>379</v>
       </c>
+      <c r="AMJ197" s="0"/>
     </row>
     <row r="198" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="12" t="n">
@@ -10595,6 +10432,7 @@
       <c r="I198" s="12" t="s">
         <v>381</v>
       </c>
+      <c r="AMJ198" s="0"/>
     </row>
     <row r="199" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="12" t="n">
@@ -10624,6 +10462,7 @@
       <c r="I199" s="12" t="s">
         <v>383</v>
       </c>
+      <c r="AMJ199" s="0"/>
     </row>
     <row r="200" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="12" t="n">
@@ -10653,6 +10492,7 @@
       <c r="I200" s="12" t="s">
         <v>385</v>
       </c>
+      <c r="AMJ200" s="0"/>
     </row>
     <row r="201" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="12" t="n">
@@ -10682,6 +10522,7 @@
       <c r="I201" s="12" t="s">
         <v>387</v>
       </c>
+      <c r="AMJ201" s="0"/>
     </row>
     <row r="202" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="12" t="n">
@@ -10711,6 +10552,7 @@
       <c r="I202" s="12" t="s">
         <v>389</v>
       </c>
+      <c r="AMJ202" s="0"/>
     </row>
     <row r="203" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="12" t="n">
@@ -10740,6 +10582,7 @@
       <c r="I203" s="12" t="s">
         <v>391</v>
       </c>
+      <c r="AMJ203" s="0"/>
     </row>
     <row r="204" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="12" t="n">
@@ -10769,6 +10612,7 @@
       <c r="I204" s="12" t="s">
         <v>393</v>
       </c>
+      <c r="AMJ204" s="0"/>
     </row>
     <row r="205" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="12" t="n">
@@ -10798,6 +10642,7 @@
       <c r="I205" s="12" t="s">
         <v>395</v>
       </c>
+      <c r="AMJ205" s="0"/>
     </row>
     <row r="206" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="12" t="n">
@@ -10827,6 +10672,7 @@
       <c r="I206" s="12" t="s">
         <v>397</v>
       </c>
+      <c r="AMJ206" s="0"/>
     </row>
     <row r="207" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="12" t="n">
@@ -10856,6 +10702,7 @@
       <c r="I207" s="12" t="s">
         <v>399</v>
       </c>
+      <c r="AMJ207" s="0"/>
     </row>
     <row r="208" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="12" t="n">
@@ -10885,6 +10732,7 @@
       <c r="I208" s="12" t="s">
         <v>401</v>
       </c>
+      <c r="AMJ208" s="0"/>
     </row>
     <row r="209" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="12" t="n">
@@ -10914,6 +10762,7 @@
       <c r="I209" s="15" t="s">
         <v>403</v>
       </c>
+      <c r="AMJ209" s="0"/>
     </row>
     <row r="210" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="12" t="n">
@@ -10943,6 +10792,7 @@
       <c r="I210" s="12" t="s">
         <v>405</v>
       </c>
+      <c r="AMJ210" s="0"/>
     </row>
     <row r="211" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="12" t="n">
@@ -10972,6 +10822,7 @@
       <c r="I211" s="12" t="s">
         <v>407</v>
       </c>
+      <c r="AMJ211" s="0"/>
     </row>
     <row r="212" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="12" t="n">
@@ -10999,6 +10850,7 @@
       <c r="I212" s="15" t="s">
         <v>409</v>
       </c>
+      <c r="AMJ212" s="0"/>
     </row>
     <row r="213" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="12" t="n">
@@ -11026,6 +10878,7 @@
       <c r="I213" s="15" t="s">
         <v>411</v>
       </c>
+      <c r="AMJ213" s="0"/>
     </row>
     <row r="214" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="12" t="n">
@@ -11053,6 +10906,7 @@
       <c r="I214" s="15" t="s">
         <v>413</v>
       </c>
+      <c r="AMJ214" s="0"/>
     </row>
     <row r="215" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12" t="n">
@@ -11080,6 +10934,7 @@
       <c r="I215" s="15" t="s">
         <v>415</v>
       </c>
+      <c r="AMJ215" s="0"/>
     </row>
     <row r="216" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="12" t="n">
@@ -11107,6 +10962,7 @@
       <c r="I216" s="15" t="s">
         <v>417</v>
       </c>
+      <c r="AMJ216" s="0"/>
     </row>
     <row r="217" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12" t="n">
@@ -11134,6 +10990,7 @@
       <c r="I217" s="15" t="s">
         <v>419</v>
       </c>
+      <c r="AMJ217" s="0"/>
     </row>
     <row r="218" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="12" t="n">
@@ -11161,6 +11018,7 @@
       <c r="I218" s="15" t="s">
         <v>421</v>
       </c>
+      <c r="AMJ218" s="0"/>
     </row>
     <row r="219" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12" t="n">
@@ -11188,6 +11046,7 @@
       <c r="I219" s="15" t="s">
         <v>423</v>
       </c>
+      <c r="AMJ219" s="0"/>
     </row>
     <row r="220" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="12" t="n">
@@ -11215,6 +11074,7 @@
       <c r="I220" s="15" t="s">
         <v>425</v>
       </c>
+      <c r="AMJ220" s="0"/>
     </row>
     <row r="221" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12" t="n">
@@ -11242,6 +11102,7 @@
       <c r="I221" s="15" t="s">
         <v>427</v>
       </c>
+      <c r="AMJ221" s="0"/>
     </row>
     <row r="222" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="12" t="n">
@@ -11269,6 +11130,7 @@
       <c r="I222" s="15" t="s">
         <v>429</v>
       </c>
+      <c r="AMJ222" s="0"/>
     </row>
     <row r="223" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12" t="n">
@@ -11296,6 +11158,7 @@
       <c r="I223" s="15" t="s">
         <v>431</v>
       </c>
+      <c r="AMJ223" s="0"/>
     </row>
     <row r="224" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="12" t="n">
@@ -11323,6 +11186,7 @@
       <c r="I224" s="15" t="s">
         <v>433</v>
       </c>
+      <c r="AMJ224" s="0"/>
     </row>
     <row r="225" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="n">
@@ -11350,6 +11214,7 @@
       <c r="I225" s="15" t="s">
         <v>435</v>
       </c>
+      <c r="AMJ225" s="0"/>
     </row>
     <row r="226" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="12" t="n">
@@ -11377,6 +11242,7 @@
       <c r="I226" s="15" t="s">
         <v>437</v>
       </c>
+      <c r="AMJ226" s="0"/>
     </row>
     <row r="227" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12" t="n">
@@ -11404,6 +11270,7 @@
       <c r="I227" s="15" t="s">
         <v>439</v>
       </c>
+      <c r="AMJ227" s="0"/>
     </row>
     <row r="228" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="12" t="n">
@@ -11431,6 +11298,7 @@
       <c r="I228" s="15" t="s">
         <v>441</v>
       </c>
+      <c r="AMJ228" s="0"/>
     </row>
     <row r="229" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12" t="n">
@@ -11458,6 +11326,7 @@
       <c r="I229" s="15" t="s">
         <v>443</v>
       </c>
+      <c r="AMJ229" s="0"/>
     </row>
     <row r="230" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="12" t="n">
@@ -11485,6 +11354,7 @@
       <c r="I230" s="15" t="s">
         <v>445</v>
       </c>
+      <c r="AMJ230" s="0"/>
     </row>
     <row r="231" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12" t="n">
@@ -11512,6 +11382,7 @@
       <c r="I231" s="15" t="s">
         <v>447</v>
       </c>
+      <c r="AMJ231" s="0"/>
     </row>
     <row r="232" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="12" t="n">
@@ -11539,6 +11410,7 @@
       <c r="I232" s="15" t="s">
         <v>449</v>
       </c>
+      <c r="AMJ232" s="0"/>
     </row>
     <row r="233" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12" t="n">
@@ -11566,6 +11438,7 @@
       <c r="I233" s="15" t="s">
         <v>451</v>
       </c>
+      <c r="AMJ233" s="0"/>
     </row>
     <row r="234" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="12" t="n">
@@ -11593,6 +11466,7 @@
       <c r="I234" s="15" t="s">
         <v>453</v>
       </c>
+      <c r="AMJ234" s="0"/>
     </row>
     <row r="235" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12" t="n">
@@ -11620,6 +11494,7 @@
       <c r="I235" s="15" t="s">
         <v>455</v>
       </c>
+      <c r="AMJ235" s="0"/>
     </row>
     <row r="236" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="12" t="n">
@@ -11647,6 +11522,7 @@
       <c r="I236" s="15" t="s">
         <v>457</v>
       </c>
+      <c r="AMJ236" s="0"/>
     </row>
     <row r="237" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="12" t="n">
@@ -11674,6 +11550,7 @@
       <c r="I237" s="15" t="s">
         <v>459</v>
       </c>
+      <c r="AMJ237" s="0"/>
     </row>
     <row r="238" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="12" t="n">
@@ -11701,6 +11578,7 @@
       <c r="I238" s="15" t="s">
         <v>461</v>
       </c>
+      <c r="AMJ238" s="0"/>
     </row>
     <row r="239" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12" t="n">
@@ -11728,6 +11606,7 @@
       <c r="I239" s="15" t="s">
         <v>463</v>
       </c>
+      <c r="AMJ239" s="0"/>
     </row>
     <row r="240" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="12" t="n">
@@ -11755,6 +11634,7 @@
       <c r="I240" s="15" t="s">
         <v>465</v>
       </c>
+      <c r="AMJ240" s="0"/>
     </row>
     <row r="241" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12" t="n">
@@ -11782,6 +11662,7 @@
       <c r="I241" s="15" t="s">
         <v>467</v>
       </c>
+      <c r="AMJ241" s="0"/>
     </row>
     <row r="242" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="12" t="n">
@@ -11809,6 +11690,7 @@
       <c r="I242" s="15" t="s">
         <v>469</v>
       </c>
+      <c r="AMJ242" s="0"/>
     </row>
     <row r="243" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="12" t="n">
@@ -11836,6 +11718,7 @@
       <c r="I243" s="15" t="s">
         <v>471</v>
       </c>
+      <c r="AMJ243" s="0"/>
     </row>
     <row r="244" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="12" t="n">
@@ -11863,6 +11746,7 @@
       <c r="I244" s="15" t="s">
         <v>473</v>
       </c>
+      <c r="AMJ244" s="0"/>
     </row>
     <row r="245" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="12" t="n">
@@ -11890,6 +11774,7 @@
       <c r="I245" s="15" t="s">
         <v>475</v>
       </c>
+      <c r="AMJ245" s="0"/>
     </row>
     <row r="246" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="12" t="n">
@@ -11917,6 +11802,7 @@
       <c r="I246" s="15" t="s">
         <v>477</v>
       </c>
+      <c r="AMJ246" s="0"/>
     </row>
     <row r="247" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="12" t="n">
@@ -11944,6 +11830,7 @@
       <c r="I247" s="15" t="s">
         <v>479</v>
       </c>
+      <c r="AMJ247" s="0"/>
     </row>
     <row r="248" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="12" t="n">
@@ -11971,6 +11858,7 @@
       <c r="I248" s="15" t="s">
         <v>481</v>
       </c>
+      <c r="AMJ248" s="0"/>
     </row>
     <row r="249" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="12" t="n">
@@ -11998,6 +11886,7 @@
       <c r="I249" s="15" t="s">
         <v>483</v>
       </c>
+      <c r="AMJ249" s="0"/>
     </row>
     <row r="250" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="12" t="n">
@@ -12025,6 +11914,7 @@
       <c r="I250" s="15" t="s">
         <v>485</v>
       </c>
+      <c r="AMJ250" s="0"/>
     </row>
     <row r="251" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="12" t="n">
@@ -12052,6 +11942,7 @@
       <c r="I251" s="15" t="s">
         <v>487</v>
       </c>
+      <c r="AMJ251" s="0"/>
     </row>
     <row r="252" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="12" t="n">
@@ -12079,6 +11970,7 @@
       <c r="I252" s="15" t="s">
         <v>489</v>
       </c>
+      <c r="AMJ252" s="0"/>
     </row>
     <row r="253" s="12" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="12" t="n">
@@ -12106,6 +11998,7 @@
       <c r="I253" s="15" t="s">
         <v>491</v>
       </c>
+      <c r="AMJ253" s="0"/>
     </row>
     <row r="254" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="17" t="n">
@@ -12133,6 +12026,7 @@
       <c r="I254" s="17" t="s">
         <v>493</v>
       </c>
+      <c r="AMJ254" s="0"/>
     </row>
     <row r="255" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="17" t="n">
@@ -12158,6 +12052,7 @@
       <c r="I255" s="17" t="s">
         <v>494</v>
       </c>
+      <c r="AMJ255" s="0"/>
     </row>
     <row r="256" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="17" t="n">
@@ -12185,6 +12080,7 @@
       <c r="I256" s="17" t="s">
         <v>496</v>
       </c>
+      <c r="AMJ256" s="0"/>
     </row>
     <row r="257" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="17" t="n">
@@ -12210,6 +12106,7 @@
       <c r="I257" s="17" t="s">
         <v>497</v>
       </c>
+      <c r="AMJ257" s="0"/>
     </row>
     <row r="258" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="17" t="n">
@@ -12224,7 +12121,7 @@
       <c r="D258" s="17" t="n">
         <v>20170710</v>
       </c>
-      <c r="E258" s="22" t="s">
+      <c r="E258" s="18" t="s">
         <v>498</v>
       </c>
       <c r="F258" s="19" t="n">
@@ -12237,6 +12134,7 @@
       <c r="I258" s="17" t="s">
         <v>499</v>
       </c>
+      <c r="AMJ258" s="0"/>
     </row>
     <row r="259" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="17" t="n">
@@ -12262,6 +12160,7 @@
       <c r="I259" s="17" t="s">
         <v>500</v>
       </c>
+      <c r="AMJ259" s="0"/>
     </row>
     <row r="260" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="17" t="n">
@@ -12289,6 +12188,7 @@
       <c r="I260" s="17" t="s">
         <v>502</v>
       </c>
+      <c r="AMJ260" s="0"/>
     </row>
     <row r="261" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="17" t="n">
@@ -12314,6 +12214,7 @@
       <c r="I261" s="17" t="s">
         <v>503</v>
       </c>
+      <c r="AMJ261" s="0"/>
     </row>
     <row r="262" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="17" t="n">
@@ -12341,6 +12242,7 @@
       <c r="I262" s="17" t="s">
         <v>505</v>
       </c>
+      <c r="AMJ262" s="0"/>
     </row>
     <row r="263" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="17" t="n">
@@ -12366,6 +12268,7 @@
       <c r="I263" s="17" t="s">
         <v>506</v>
       </c>
+      <c r="AMJ263" s="0"/>
     </row>
     <row r="264" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="17" t="n">
@@ -12393,6 +12296,7 @@
       <c r="I264" s="17" t="s">
         <v>508</v>
       </c>
+      <c r="AMJ264" s="0"/>
     </row>
     <row r="265" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="17" t="n">
@@ -12418,6 +12322,7 @@
       <c r="I265" s="17" t="s">
         <v>509</v>
       </c>
+      <c r="AMJ265" s="0"/>
     </row>
     <row r="266" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="17" t="n">
@@ -12445,6 +12350,7 @@
       <c r="I266" s="17" t="s">
         <v>511</v>
       </c>
+      <c r="AMJ266" s="0"/>
     </row>
     <row r="267" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="17" t="n">
@@ -12470,6 +12376,7 @@
       <c r="I267" s="17" t="s">
         <v>512</v>
       </c>
+      <c r="AMJ267" s="0"/>
     </row>
     <row r="268" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="17" t="n">
@@ -12497,6 +12404,7 @@
       <c r="I268" s="17" t="s">
         <v>514</v>
       </c>
+      <c r="AMJ268" s="0"/>
     </row>
     <row r="269" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="17" t="n">
@@ -12522,6 +12430,7 @@
       <c r="I269" s="17" t="s">
         <v>515</v>
       </c>
+      <c r="AMJ269" s="0"/>
     </row>
     <row r="270" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="17" t="n">
@@ -12549,6 +12458,7 @@
       <c r="I270" s="17" t="s">
         <v>517</v>
       </c>
+      <c r="AMJ270" s="0"/>
     </row>
     <row r="271" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="17" t="n">
@@ -12574,6 +12484,7 @@
       <c r="I271" s="17" t="s">
         <v>518</v>
       </c>
+      <c r="AMJ271" s="0"/>
     </row>
     <row r="272" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="17" t="n">
@@ -12601,6 +12512,7 @@
       <c r="I272" s="17" t="s">
         <v>520</v>
       </c>
+      <c r="AMJ272" s="0"/>
     </row>
     <row r="273" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="17" t="n">
@@ -12626,6 +12538,7 @@
       <c r="I273" s="17" t="s">
         <v>521</v>
       </c>
+      <c r="AMJ273" s="0"/>
     </row>
     <row r="274" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="17" t="n">
@@ -12653,6 +12566,7 @@
       <c r="I274" s="17" t="s">
         <v>523</v>
       </c>
+      <c r="AMJ274" s="0"/>
     </row>
     <row r="275" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="17" t="n">
@@ -12678,6 +12592,7 @@
       <c r="I275" s="17" t="s">
         <v>524</v>
       </c>
+      <c r="AMJ275" s="0"/>
     </row>
     <row r="276" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="17" t="n">
@@ -12705,6 +12620,7 @@
       <c r="I276" s="17" t="s">
         <v>526</v>
       </c>
+      <c r="AMJ276" s="0"/>
     </row>
     <row r="277" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="17" t="n">
@@ -12730,6 +12646,7 @@
       <c r="I277" s="17" t="s">
         <v>527</v>
       </c>
+      <c r="AMJ277" s="0"/>
     </row>
     <row r="278" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="17" t="n">
@@ -12757,6 +12674,7 @@
       <c r="I278" s="17" t="s">
         <v>529</v>
       </c>
+      <c r="AMJ278" s="0"/>
     </row>
     <row r="279" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="17" t="n">
@@ -12782,6 +12700,7 @@
       <c r="I279" s="17" t="s">
         <v>530</v>
       </c>
+      <c r="AMJ279" s="0"/>
     </row>
     <row r="280" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="17" t="n">
@@ -12809,6 +12728,7 @@
       <c r="I280" s="17" t="s">
         <v>532</v>
       </c>
+      <c r="AMJ280" s="0"/>
     </row>
     <row r="281" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="17" t="n">
@@ -12834,6 +12754,7 @@
       <c r="I281" s="17" t="s">
         <v>533</v>
       </c>
+      <c r="AMJ281" s="0"/>
     </row>
     <row r="282" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="17" t="n">
@@ -12861,6 +12782,7 @@
       <c r="I282" s="17" t="s">
         <v>535</v>
       </c>
+      <c r="AMJ282" s="0"/>
     </row>
     <row r="283" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="17" t="n">
@@ -12886,6 +12808,7 @@
       <c r="I283" s="17" t="s">
         <v>536</v>
       </c>
+      <c r="AMJ283" s="0"/>
     </row>
     <row r="284" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="17" t="n">
@@ -12913,6 +12836,7 @@
       <c r="I284" s="17" t="s">
         <v>538</v>
       </c>
+      <c r="AMJ284" s="0"/>
     </row>
     <row r="285" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="17" t="n">
@@ -12938,6 +12862,7 @@
       <c r="I285" s="17" t="s">
         <v>539</v>
       </c>
+      <c r="AMJ285" s="0"/>
     </row>
     <row r="286" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="17" t="n">
@@ -12965,6 +12890,7 @@
       <c r="I286" s="17" t="s">
         <v>541</v>
       </c>
+      <c r="AMJ286" s="0"/>
     </row>
     <row r="287" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="17" t="n">
@@ -12990,6 +12916,7 @@
       <c r="I287" s="17" t="s">
         <v>542</v>
       </c>
+      <c r="AMJ287" s="0"/>
     </row>
     <row r="288" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="17" t="n">
@@ -13017,6 +12944,7 @@
       <c r="I288" s="17" t="s">
         <v>544</v>
       </c>
+      <c r="AMJ288" s="0"/>
     </row>
     <row r="289" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="17" t="n">
@@ -13042,6 +12970,7 @@
       <c r="I289" s="17" t="s">
         <v>545</v>
       </c>
+      <c r="AMJ289" s="0"/>
     </row>
     <row r="290" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="17" t="n">
@@ -13069,6 +12998,7 @@
       <c r="I290" s="17" t="s">
         <v>547</v>
       </c>
+      <c r="AMJ290" s="0"/>
     </row>
     <row r="291" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="17" t="n">
@@ -13094,6 +13024,7 @@
       <c r="I291" s="17" t="s">
         <v>548</v>
       </c>
+      <c r="AMJ291" s="0"/>
     </row>
     <row r="292" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="17" t="n">
@@ -13121,6 +13052,7 @@
       <c r="I292" s="17" t="s">
         <v>550</v>
       </c>
+      <c r="AMJ292" s="0"/>
     </row>
     <row r="293" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="17" t="n">
@@ -13146,6 +13078,7 @@
       <c r="I293" s="17" t="s">
         <v>551</v>
       </c>
+      <c r="AMJ293" s="0"/>
     </row>
     <row r="294" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="17" t="n">
@@ -13173,6 +13106,7 @@
       <c r="I294" s="17" t="s">
         <v>553</v>
       </c>
+      <c r="AMJ294" s="0"/>
     </row>
     <row r="295" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="17" t="n">
@@ -13198,6 +13132,7 @@
       <c r="I295" s="17" t="s">
         <v>554</v>
       </c>
+      <c r="AMJ295" s="0"/>
     </row>
     <row r="296" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="17" t="n">
@@ -13225,6 +13160,7 @@
       <c r="I296" s="17" t="s">
         <v>556</v>
       </c>
+      <c r="AMJ296" s="0"/>
     </row>
     <row r="297" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="17" t="n">
@@ -13252,6 +13188,7 @@
       <c r="I297" s="17" t="s">
         <v>558</v>
       </c>
+      <c r="AMJ297" s="0"/>
     </row>
     <row r="298" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="17" t="n">
@@ -13279,6 +13216,7 @@
       <c r="I298" s="17" t="s">
         <v>560</v>
       </c>
+      <c r="AMJ298" s="0"/>
     </row>
     <row r="299" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="17" t="n">
@@ -13306,6 +13244,7 @@
       <c r="I299" s="17" t="s">
         <v>562</v>
       </c>
+      <c r="AMJ299" s="0"/>
     </row>
     <row r="300" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="17" t="n">
@@ -13320,7 +13259,7 @@
       <c r="D300" s="17" t="n">
         <v>20170717</v>
       </c>
-      <c r="E300" s="22" t="s">
+      <c r="E300" s="18" t="s">
         <v>563</v>
       </c>
       <c r="F300" s="19" t="n">
@@ -13333,6 +13272,7 @@
       <c r="I300" s="17" t="s">
         <v>564</v>
       </c>
+      <c r="AMJ300" s="0"/>
     </row>
     <row r="301" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="17" t="n">
@@ -13360,6 +13300,7 @@
       <c r="I301" s="17" t="s">
         <v>566</v>
       </c>
+      <c r="AMJ301" s="0"/>
     </row>
     <row r="302" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="17" t="n">
@@ -13387,6 +13328,7 @@
       <c r="I302" s="17" t="s">
         <v>568</v>
       </c>
+      <c r="AMJ302" s="0"/>
     </row>
     <row r="303" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="17" t="n">
@@ -13414,6 +13356,7 @@
       <c r="I303" s="17" t="s">
         <v>570</v>
       </c>
+      <c r="AMJ303" s="0"/>
     </row>
     <row r="304" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="17" t="n">
@@ -13441,6 +13384,7 @@
       <c r="I304" s="17" t="s">
         <v>572</v>
       </c>
+      <c r="AMJ304" s="0"/>
     </row>
     <row r="305" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="17" t="n">
@@ -13468,6 +13412,7 @@
       <c r="I305" s="17" t="s">
         <v>574</v>
       </c>
+      <c r="AMJ305" s="0"/>
     </row>
     <row r="306" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="17" t="n">
@@ -13495,6 +13440,7 @@
       <c r="I306" s="17" t="s">
         <v>576</v>
       </c>
+      <c r="AMJ306" s="0"/>
     </row>
     <row r="307" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="17" t="n">
@@ -13522,6 +13468,7 @@
       <c r="I307" s="17" t="s">
         <v>578</v>
       </c>
+      <c r="AMJ307" s="0"/>
     </row>
     <row r="308" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="17" t="n">
@@ -13549,6 +13496,7 @@
       <c r="I308" s="17" t="s">
         <v>580</v>
       </c>
+      <c r="AMJ308" s="0"/>
     </row>
     <row r="309" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="17" t="n">
@@ -13576,6 +13524,7 @@
       <c r="I309" s="17" t="s">
         <v>582</v>
       </c>
+      <c r="AMJ309" s="0"/>
     </row>
     <row r="310" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="17" t="n">
@@ -13603,6 +13552,7 @@
       <c r="I310" s="17" t="s">
         <v>584</v>
       </c>
+      <c r="AMJ310" s="0"/>
     </row>
     <row r="311" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="17" t="n">
@@ -13630,6 +13580,7 @@
       <c r="I311" s="17" t="s">
         <v>586</v>
       </c>
+      <c r="AMJ311" s="0"/>
     </row>
     <row r="312" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="17" t="n">
@@ -13657,6 +13608,7 @@
       <c r="I312" s="17" t="s">
         <v>588</v>
       </c>
+      <c r="AMJ312" s="0"/>
     </row>
     <row r="313" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="17" t="n">
@@ -13684,6 +13636,7 @@
       <c r="I313" s="17" t="s">
         <v>590</v>
       </c>
+      <c r="AMJ313" s="0"/>
     </row>
     <row r="314" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="17" t="n">
@@ -13711,6 +13664,7 @@
       <c r="I314" s="17" t="s">
         <v>592</v>
       </c>
+      <c r="AMJ314" s="0"/>
     </row>
     <row r="315" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="17" t="n">
@@ -13738,6 +13692,7 @@
       <c r="I315" s="17" t="s">
         <v>594</v>
       </c>
+      <c r="AMJ315" s="0"/>
     </row>
     <row r="316" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="17" t="n">
@@ -13765,6 +13720,7 @@
       <c r="I316" s="17" t="s">
         <v>596</v>
       </c>
+      <c r="AMJ316" s="0"/>
     </row>
     <row r="317" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="17" t="n">
@@ -13792,6 +13748,7 @@
       <c r="I317" s="17" t="s">
         <v>598</v>
       </c>
+      <c r="AMJ317" s="0"/>
     </row>
     <row r="318" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="17" t="n">
@@ -13819,6 +13776,7 @@
       <c r="I318" s="17" t="s">
         <v>600</v>
       </c>
+      <c r="AMJ318" s="0"/>
     </row>
     <row r="319" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="17" t="n">
@@ -13846,6 +13804,7 @@
       <c r="I319" s="17" t="s">
         <v>602</v>
       </c>
+      <c r="AMJ319" s="0"/>
     </row>
     <row r="320" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="17" t="n">
@@ -13873,6 +13832,7 @@
       <c r="I320" s="17" t="s">
         <v>604</v>
       </c>
+      <c r="AMJ320" s="0"/>
     </row>
     <row r="321" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="17" t="n">
@@ -13900,6 +13860,7 @@
       <c r="I321" s="17" t="s">
         <v>606</v>
       </c>
+      <c r="AMJ321" s="0"/>
     </row>
     <row r="322" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="17" t="n">
@@ -13927,6 +13888,7 @@
       <c r="I322" s="17" t="s">
         <v>608</v>
       </c>
+      <c r="AMJ322" s="0"/>
     </row>
     <row r="323" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="17" t="n">
@@ -13954,6 +13916,7 @@
       <c r="I323" s="17" t="s">
         <v>610</v>
       </c>
+      <c r="AMJ323" s="0"/>
     </row>
     <row r="324" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="17" t="n">
@@ -13981,6 +13944,7 @@
       <c r="I324" s="17" t="s">
         <v>612</v>
       </c>
+      <c r="AMJ324" s="0"/>
     </row>
     <row r="325" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="17" t="n">
@@ -14008,6 +13972,7 @@
       <c r="I325" s="17" t="s">
         <v>614</v>
       </c>
+      <c r="AMJ325" s="0"/>
     </row>
     <row r="326" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="17" t="n">
@@ -14035,6 +14000,7 @@
       <c r="I326" s="17" t="s">
         <v>616</v>
       </c>
+      <c r="AMJ326" s="0"/>
     </row>
     <row r="327" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="17" t="n">
@@ -14062,6 +14028,7 @@
       <c r="I327" s="17" t="s">
         <v>618</v>
       </c>
+      <c r="AMJ327" s="0"/>
     </row>
     <row r="328" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="17" t="n">
@@ -14089,6 +14056,7 @@
       <c r="I328" s="17" t="s">
         <v>620</v>
       </c>
+      <c r="AMJ328" s="0"/>
     </row>
     <row r="329" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="17" t="n">
@@ -14116,6 +14084,7 @@
       <c r="I329" s="17" t="s">
         <v>622</v>
       </c>
+      <c r="AMJ329" s="0"/>
     </row>
     <row r="330" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="17" t="n">
@@ -14143,6 +14112,7 @@
       <c r="I330" s="17" t="s">
         <v>624</v>
       </c>
+      <c r="AMJ330" s="0"/>
     </row>
     <row r="331" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="17" t="n">
@@ -14170,6 +14140,7 @@
       <c r="I331" s="17" t="s">
         <v>626</v>
       </c>
+      <c r="AMJ331" s="0"/>
     </row>
     <row r="332" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="17" t="n">
@@ -14197,6 +14168,7 @@
       <c r="I332" s="17" t="s">
         <v>628</v>
       </c>
+      <c r="AMJ332" s="0"/>
     </row>
     <row r="333" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="17" t="n">
@@ -14224,6 +14196,7 @@
       <c r="I333" s="17" t="s">
         <v>630</v>
       </c>
+      <c r="AMJ333" s="0"/>
     </row>
     <row r="334" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="17" t="n">
@@ -14251,6 +14224,7 @@
       <c r="I334" s="17" t="s">
         <v>632</v>
       </c>
+      <c r="AMJ334" s="0"/>
     </row>
     <row r="335" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="17" t="n">
@@ -14278,6 +14252,7 @@
       <c r="I335" s="17" t="s">
         <v>634</v>
       </c>
+      <c r="AMJ335" s="0"/>
     </row>
     <row r="336" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="17" t="n">
@@ -14305,6 +14280,7 @@
       <c r="I336" s="17" t="s">
         <v>636</v>
       </c>
+      <c r="AMJ336" s="0"/>
     </row>
     <row r="337" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="17" t="n">
@@ -14332,1405 +14308,1357 @@
       <c r="I337" s="17" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="338" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B338" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C338" s="23" t="n">
+      <c r="AMJ337" s="0"/>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B338" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D338" s="23" t="n">
+      <c r="D338" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E338" s="24" t="s">
+      <c r="E338" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="F338" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G338" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H338" s="27"/>
-      <c r="I338" s="23" t="s">
+      <c r="F338" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G338" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I338" s="0" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="339" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B339" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C339" s="23" t="n">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B339" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C339" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D339" s="23" t="n">
+      <c r="D339" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E339" s="24"/>
-      <c r="F339" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G339" s="26" t="s">
+      <c r="E339" s="4"/>
+      <c r="F339" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G339" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H339" s="27"/>
-      <c r="I339" s="23" t="s">
+      <c r="I339" s="0" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="340" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B340" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C340" s="23" t="n">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B340" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C340" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D340" s="23" t="n">
+      <c r="D340" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E340" s="24" t="s">
+      <c r="E340" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="F340" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G340" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="H340" s="27"/>
-      <c r="I340" s="23" t="s">
+      <c r="F340" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G340" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I340" s="0" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="341" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B341" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C341" s="23" t="n">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B341" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C341" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D341" s="23" t="n">
+      <c r="D341" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E341" s="24"/>
-      <c r="F341" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G341" s="26" t="s">
+      <c r="E341" s="4"/>
+      <c r="F341" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G341" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H341" s="27"/>
-      <c r="I341" s="23" t="s">
+      <c r="I341" s="0" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="342" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B342" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C342" s="23" t="n">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B342" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C342" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D342" s="23" t="n">
+      <c r="D342" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E342" s="24" t="s">
+      <c r="E342" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="F342" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G342" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="H342" s="27"/>
-      <c r="I342" s="23" t="s">
+      <c r="F342" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G342" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I342" s="0" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="343" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B343" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C343" s="23" t="n">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B343" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C343" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D343" s="23" t="n">
+      <c r="D343" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E343" s="24"/>
-      <c r="F343" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G343" s="26" t="s">
+      <c r="E343" s="4"/>
+      <c r="F343" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G343" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H343" s="27"/>
-      <c r="I343" s="23" t="s">
+      <c r="I343" s="0" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="344" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B344" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C344" s="23" t="n">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C344" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D344" s="23" t="n">
+      <c r="D344" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E344" s="24" t="s">
+      <c r="E344" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="F344" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G344" s="26" t="n">
+      <c r="F344" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G344" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="H344" s="27"/>
-      <c r="I344" s="23" t="s">
+      <c r="I344" s="0" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="345" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B345" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C345" s="23" t="n">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B345" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C345" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D345" s="23" t="n">
+      <c r="D345" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E345" s="24"/>
-      <c r="F345" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G345" s="26" t="s">
+      <c r="E345" s="4"/>
+      <c r="F345" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G345" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H345" s="27"/>
-      <c r="I345" s="23" t="s">
+      <c r="I345" s="0" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="346" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B346" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C346" s="23" t="n">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B346" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C346" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D346" s="23" t="n">
+      <c r="D346" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E346" s="24" t="s">
+      <c r="E346" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="F346" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G346" s="26" t="n">
+      <c r="F346" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G346" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="H346" s="27"/>
-      <c r="I346" s="23" t="s">
+      <c r="I346" s="0" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="347" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B347" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C347" s="23" t="n">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B347" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C347" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D347" s="23" t="n">
+      <c r="D347" s="0" t="n">
         <v>20170710</v>
       </c>
-      <c r="E347" s="24"/>
-      <c r="F347" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G347" s="26" t="s">
+      <c r="E347" s="4"/>
+      <c r="F347" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G347" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H347" s="27"/>
-      <c r="I347" s="23" t="s">
+      <c r="I347" s="0" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="348" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B348" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C348" s="23" t="n">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B348" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C348" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D348" s="23" t="n">
+      <c r="D348" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E348" s="24" t="s">
+      <c r="E348" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F348" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G348" s="26" t="n">
+      <c r="F348" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G348" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="H348" s="27"/>
-      <c r="I348" s="23" t="s">
+      <c r="I348" s="0" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="349" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B349" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C349" s="23" t="n">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B349" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C349" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D349" s="23" t="n">
+      <c r="D349" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E349" s="24"/>
-      <c r="F349" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G349" s="26" t="s">
+      <c r="E349" s="4"/>
+      <c r="F349" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G349" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H349" s="27"/>
-      <c r="I349" s="23" t="s">
+      <c r="I349" s="0" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="350" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B350" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C350" s="23" t="n">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B350" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C350" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D350" s="23" t="n">
+      <c r="D350" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E350" s="24" t="s">
+      <c r="E350" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="F350" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G350" s="26" t="n">
+      <c r="F350" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G350" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="H350" s="27"/>
-      <c r="I350" s="23" t="s">
+      <c r="I350" s="0" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="351" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B351" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C351" s="23" t="n">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B351" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C351" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D351" s="23" t="n">
+      <c r="D351" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E351" s="24"/>
-      <c r="F351" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G351" s="26" t="s">
+      <c r="E351" s="4"/>
+      <c r="F351" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G351" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="H351" s="27"/>
-      <c r="I351" s="23" t="s">
+      <c r="I351" s="0" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="352" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B352" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C352" s="23" t="n">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B352" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C352" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D352" s="23" t="n">
+      <c r="D352" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E352" s="24" t="s">
+      <c r="E352" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="F352" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G352" s="26" t="n">
+      <c r="F352" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G352" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="H352" s="27"/>
-      <c r="I352" s="23" t="s">
+      <c r="I352" s="0" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="353" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B353" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C353" s="23" t="n">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B353" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C353" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D353" s="23" t="n">
+      <c r="D353" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E353" s="24"/>
-      <c r="F353" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G353" s="26" t="s">
+      <c r="E353" s="4"/>
+      <c r="F353" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G353" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H353" s="27"/>
-      <c r="I353" s="23" t="s">
+      <c r="I353" s="0" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="354" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B354" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C354" s="23" t="n">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B354" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C354" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D354" s="23" t="n">
+      <c r="D354" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E354" s="24" t="s">
+      <c r="E354" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="F354" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G354" s="26" t="n">
+      <c r="F354" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G354" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="H354" s="27"/>
-      <c r="I354" s="23" t="s">
+      <c r="I354" s="0" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="355" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B355" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C355" s="23" t="n">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B355" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C355" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D355" s="23" t="n">
+      <c r="D355" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E355" s="24"/>
-      <c r="F355" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G355" s="26" t="s">
+      <c r="E355" s="4"/>
+      <c r="F355" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G355" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H355" s="27"/>
-      <c r="I355" s="23" t="s">
+      <c r="I355" s="0" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="356" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B356" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C356" s="23" t="n">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B356" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C356" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D356" s="23" t="n">
+      <c r="D356" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E356" s="24" t="s">
+      <c r="E356" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="F356" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G356" s="26" t="n">
+      <c r="F356" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G356" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="H356" s="27"/>
-      <c r="I356" s="23" t="s">
+      <c r="I356" s="0" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="357" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B357" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C357" s="23" t="n">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B357" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C357" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D357" s="23" t="n">
+      <c r="D357" s="0" t="n">
         <v>20170711</v>
       </c>
-      <c r="E357" s="24"/>
-      <c r="F357" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G357" s="26" t="s">
+      <c r="E357" s="4"/>
+      <c r="F357" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G357" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H357" s="27"/>
-      <c r="I357" s="23" t="s">
+      <c r="I357" s="0" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="358" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B358" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C358" s="23" t="n">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B358" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C358" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D358" s="23" t="n">
+      <c r="D358" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E358" s="24" t="s">
+      <c r="E358" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="F358" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G358" s="26" t="n">
+      <c r="F358" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G358" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="H358" s="27"/>
-      <c r="I358" s="23" t="s">
+      <c r="I358" s="0" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="359" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B359" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C359" s="23" t="n">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B359" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C359" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D359" s="23" t="n">
+      <c r="D359" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E359" s="24"/>
-      <c r="F359" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G359" s="26" t="s">
+      <c r="E359" s="4"/>
+      <c r="F359" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G359" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H359" s="27"/>
-      <c r="I359" s="23" t="s">
+      <c r="I359" s="0" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="360" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B360" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C360" s="23" t="n">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B360" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C360" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D360" s="23" t="n">
+      <c r="D360" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E360" s="24" t="s">
+      <c r="E360" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="F360" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G360" s="26" t="n">
+      <c r="F360" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G360" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="H360" s="27"/>
-      <c r="I360" s="23" t="s">
+      <c r="I360" s="0" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="361" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B361" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C361" s="23" t="n">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B361" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C361" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D361" s="23" t="n">
+      <c r="D361" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E361" s="24"/>
-      <c r="F361" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G361" s="26" t="s">
+      <c r="E361" s="4"/>
+      <c r="F361" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G361" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H361" s="27"/>
-      <c r="I361" s="23" t="s">
+      <c r="I361" s="0" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="362" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B362" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C362" s="23" t="n">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B362" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C362" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D362" s="23" t="n">
+      <c r="D362" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E362" s="24" t="s">
+      <c r="E362" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="F362" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G362" s="26" t="n">
+      <c r="F362" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G362" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="H362" s="27"/>
-      <c r="I362" s="23" t="s">
+      <c r="I362" s="0" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="363" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B363" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C363" s="23" t="n">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B363" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C363" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D363" s="23" t="n">
+      <c r="D363" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E363" s="24"/>
-      <c r="F363" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G363" s="26" t="s">
+      <c r="E363" s="4"/>
+      <c r="F363" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G363" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H363" s="27"/>
-      <c r="I363" s="23" t="s">
+      <c r="I363" s="0" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="364" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B364" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C364" s="23" t="n">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B364" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C364" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D364" s="23" t="n">
+      <c r="D364" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E364" s="24" t="s">
+      <c r="E364" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="F364" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G364" s="26" t="n">
+      <c r="F364" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G364" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="H364" s="27"/>
-      <c r="I364" s="23" t="s">
+      <c r="I364" s="0" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="365" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B365" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C365" s="23" t="n">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B365" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C365" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D365" s="23" t="n">
+      <c r="D365" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E365" s="24"/>
-      <c r="F365" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G365" s="26" t="s">
+      <c r="E365" s="4"/>
+      <c r="F365" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G365" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="H365" s="27"/>
-      <c r="I365" s="23" t="s">
+      <c r="I365" s="0" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="366" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B366" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C366" s="23" t="n">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B366" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C366" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D366" s="23" t="n">
+      <c r="D366" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E366" s="24" t="s">
+      <c r="E366" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="F366" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G366" s="26" t="n">
+      <c r="F366" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G366" s="22" t="n">
         <v>15</v>
       </c>
-      <c r="H366" s="27"/>
-      <c r="I366" s="23" t="s">
+      <c r="I366" s="0" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="367" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B367" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C367" s="23" t="n">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B367" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C367" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D367" s="23" t="n">
+      <c r="D367" s="0" t="n">
         <v>20170712</v>
       </c>
-      <c r="E367" s="24"/>
-      <c r="F367" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G367" s="26" t="s">
+      <c r="E367" s="4"/>
+      <c r="F367" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G367" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="H367" s="27"/>
-      <c r="I367" s="23" t="s">
+      <c r="I367" s="0" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="368" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B368" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C368" s="23" t="n">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B368" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C368" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D368" s="23" t="n">
+      <c r="D368" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E368" s="23" t="n">
+      <c r="E368" s="0" t="n">
         <v>103614</v>
       </c>
-      <c r="F368" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G368" s="26" t="n">
+      <c r="F368" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G368" s="22" t="n">
         <v>16</v>
       </c>
-      <c r="I368" s="23" t="s">
+      <c r="H368" s="0"/>
+      <c r="I368" s="0" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="369" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B369" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C369" s="23" t="n">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B369" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C369" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D369" s="23" t="n">
+      <c r="D369" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="F369" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G369" s="26" t="s">
+      <c r="E369" s="0"/>
+      <c r="F369" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G369" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="I369" s="23" t="s">
+      <c r="H369" s="0"/>
+      <c r="I369" s="0" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="370" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B370" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C370" s="23" t="n">
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B370" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C370" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D370" s="23" t="n">
+      <c r="D370" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E370" s="24" t="s">
+      <c r="E370" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="F370" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G370" s="26" t="n">
+      <c r="F370" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G370" s="22" t="n">
         <v>17</v>
       </c>
-      <c r="H370" s="27"/>
-      <c r="I370" s="23" t="s">
+      <c r="I370" s="0" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="371" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B371" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C371" s="23" t="n">
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B371" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C371" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D371" s="23" t="n">
+      <c r="D371" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E371" s="24"/>
-      <c r="F371" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G371" s="26" t="s">
+      <c r="E371" s="4"/>
+      <c r="F371" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G371" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H371" s="27"/>
-      <c r="I371" s="23" t="s">
+      <c r="I371" s="0" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="372" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B372" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C372" s="23" t="n">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B372" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C372" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D372" s="23" t="n">
+      <c r="D372" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E372" s="24" t="s">
+      <c r="E372" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F372" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G372" s="26" t="n">
+      <c r="F372" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G372" s="22" t="n">
         <v>18</v>
       </c>
-      <c r="H372" s="27"/>
-      <c r="I372" s="23" t="s">
+      <c r="I372" s="0" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="373" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B373" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C373" s="23" t="n">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B373" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C373" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D373" s="23" t="n">
+      <c r="D373" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E373" s="24"/>
-      <c r="F373" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G373" s="26" t="s">
+      <c r="E373" s="4"/>
+      <c r="F373" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G373" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H373" s="27"/>
-      <c r="I373" s="23" t="s">
+      <c r="I373" s="0" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="374" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B374" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C374" s="23" t="n">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B374" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C374" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D374" s="23" t="n">
+      <c r="D374" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E374" s="24" t="s">
+      <c r="E374" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="F374" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G374" s="26" t="n">
+      <c r="F374" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G374" s="22" t="n">
         <v>19</v>
       </c>
-      <c r="H374" s="27"/>
-      <c r="I374" s="23" t="s">
+      <c r="I374" s="0" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="375" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B375" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C375" s="23" t="n">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B375" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C375" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D375" s="23" t="n">
+      <c r="D375" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E375" s="24"/>
-      <c r="F375" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G375" s="26" t="s">
+      <c r="E375" s="4"/>
+      <c r="F375" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G375" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H375" s="27"/>
-      <c r="I375" s="23" t="s">
+      <c r="I375" s="0" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="376" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B376" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C376" s="23" t="n">
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B376" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C376" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D376" s="23" t="n">
+      <c r="D376" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E376" s="24" t="s">
+      <c r="E376" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="F376" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G376" s="26" t="n">
+      <c r="F376" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G376" s="22" t="n">
         <v>20</v>
       </c>
-      <c r="H376" s="27"/>
-      <c r="I376" s="23" t="s">
+      <c r="I376" s="0" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="377" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B377" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C377" s="23" t="n">
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B377" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C377" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D377" s="23" t="n">
+      <c r="D377" s="0" t="n">
         <v>20170713</v>
       </c>
-      <c r="E377" s="24"/>
-      <c r="F377" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G377" s="26" t="s">
+      <c r="E377" s="4"/>
+      <c r="F377" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G377" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="H377" s="27"/>
-      <c r="I377" s="23" t="s">
+      <c r="I377" s="0" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="378" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B378" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C378" s="23" t="n">
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B378" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C378" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D378" s="23" t="n">
+      <c r="D378" s="0" t="n">
         <v>20170714</v>
       </c>
-      <c r="E378" s="24" t="s">
+      <c r="E378" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="F378" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G378" s="26" t="n">
+      <c r="F378" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G378" s="22" t="n">
         <v>21</v>
       </c>
-      <c r="H378" s="27"/>
-      <c r="I378" s="23" t="s">
+      <c r="I378" s="0" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="379" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="23" t="n">
-        <v>3</v>
-      </c>
-      <c r="B379" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C379" s="23" t="n">
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B379" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C379" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D379" s="23" t="n">
+      <c r="D379" s="0" t="n">
         <v>20170714</v>
       </c>
-      <c r="E379" s="24"/>
-      <c r="F379" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G379" s="26" t="s">
+      <c r="E379" s="4"/>
+      <c r="F379" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G379" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H379" s="27"/>
-      <c r="I379" s="23" t="s">
+      <c r="I379" s="0" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="380" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B380" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C380" s="23" t="n">
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B380" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C380" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D380" s="23" t="n">
+      <c r="D380" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E380" s="24" t="s">
+      <c r="E380" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="F380" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G380" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H380" s="27"/>
-      <c r="I380" s="23" t="s">
+      <c r="F380" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G380" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I380" s="0" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="381" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B381" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C381" s="23" t="n">
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B381" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C381" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D381" s="23" t="n">
+      <c r="D381" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E381" s="24"/>
-      <c r="F381" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G381" s="26" t="s">
+      <c r="E381" s="4"/>
+      <c r="F381" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G381" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H381" s="27"/>
-      <c r="I381" s="23" t="s">
+      <c r="I381" s="0" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="382" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B382" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C382" s="23" t="n">
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B382" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C382" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D382" s="23" t="n">
+      <c r="D382" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E382" s="24" t="s">
+      <c r="E382" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="F382" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G382" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="H382" s="27"/>
-      <c r="I382" s="23" t="s">
+      <c r="F382" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G382" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I382" s="0" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="383" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B383" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C383" s="23" t="n">
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B383" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C383" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D383" s="23" t="n">
+      <c r="D383" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E383" s="24"/>
-      <c r="F383" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G383" s="26" t="s">
+      <c r="E383" s="4"/>
+      <c r="F383" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G383" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H383" s="27"/>
-      <c r="I383" s="23" t="s">
+      <c r="I383" s="0" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="384" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B384" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C384" s="23" t="n">
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B384" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C384" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D384" s="23" t="n">
+      <c r="D384" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E384" s="24" t="s">
+      <c r="E384" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="F384" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G384" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="H384" s="27"/>
-      <c r="I384" s="23" t="s">
+      <c r="F384" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G384" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I384" s="0" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="385" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B385" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C385" s="23" t="n">
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B385" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C385" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D385" s="23" t="n">
+      <c r="D385" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E385" s="24"/>
-      <c r="F385" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G385" s="26" t="s">
+      <c r="E385" s="4"/>
+      <c r="F385" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G385" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H385" s="27"/>
-      <c r="I385" s="23" t="s">
+      <c r="I385" s="0" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="386" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B386" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C386" s="23" t="n">
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B386" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C386" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D386" s="23" t="n">
+      <c r="D386" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E386" s="24" t="s">
+      <c r="E386" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="F386" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G386" s="26" t="n">
+      <c r="F386" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G386" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="H386" s="27"/>
-      <c r="I386" s="23" t="s">
+      <c r="I386" s="0" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="387" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B387" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C387" s="23" t="n">
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B387" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C387" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D387" s="23" t="n">
+      <c r="D387" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E387" s="24"/>
-      <c r="F387" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G387" s="26" t="s">
+      <c r="E387" s="4"/>
+      <c r="F387" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G387" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H387" s="27"/>
-      <c r="I387" s="23" t="s">
+      <c r="I387" s="0" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="388" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B388" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C388" s="23" t="n">
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B388" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C388" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D388" s="23" t="n">
+      <c r="D388" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E388" s="24" t="s">
+      <c r="E388" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="F388" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G388" s="26" t="n">
+      <c r="F388" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G388" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="H388" s="27"/>
-      <c r="I388" s="23" t="s">
+      <c r="I388" s="0" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="389" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B389" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C389" s="23" t="n">
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B389" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C389" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D389" s="23" t="n">
+      <c r="D389" s="0" t="n">
         <v>20170717</v>
       </c>
-      <c r="E389" s="24"/>
-      <c r="F389" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G389" s="26" t="s">
+      <c r="E389" s="4"/>
+      <c r="F389" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G389" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H389" s="27"/>
-      <c r="I389" s="23" t="s">
+      <c r="I389" s="0" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="390" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B390" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C390" s="23" t="n">
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B390" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C390" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D390" s="23" t="n">
+      <c r="D390" s="0" t="n">
         <v>20170718</v>
       </c>
-      <c r="E390" s="24" t="s">
+      <c r="E390" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="F390" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G390" s="26" t="n">
+      <c r="F390" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G390" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="H390" s="27"/>
-      <c r="I390" s="23" t="s">
+      <c r="I390" s="0" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="391" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="B391" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C391" s="23" t="n">
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B391" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C391" s="0" t="n">
         <v>32364</v>
       </c>
-      <c r="D391" s="23" t="n">
+      <c r="D391" s="0" t="n">
         <v>20170718</v>
       </c>
-      <c r="E391" s="24"/>
-      <c r="F391" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G391" s="26" t="s">
+      <c r="E391" s="4"/>
+      <c r="F391" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G391" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H391" s="27"/>
-      <c r="I391" s="23" t="s">
+      <c r="I391" s="0" t="s">
         <v>718</v>
       </c>
     </row>
@@ -15753,7 +15681,7 @@
       <c r="F392" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G392" s="28" t="n">
+      <c r="G392" s="22" t="n">
         <v>7</v>
       </c>
       <c r="I392" s="0" t="s">
@@ -15776,7 +15704,7 @@
       <c r="F393" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G393" s="28" t="s">
+      <c r="G393" s="22" t="s">
         <v>42</v>
       </c>
       <c r="I393" s="0" t="s">
@@ -15802,7 +15730,7 @@
       <c r="F394" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G394" s="28" t="n">
+      <c r="G394" s="22" t="n">
         <v>8</v>
       </c>
       <c r="I394" s="0" t="s">
@@ -15825,7 +15753,7 @@
       <c r="F395" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G395" s="28" t="s">
+      <c r="G395" s="22" t="s">
         <v>47</v>
       </c>
       <c r="I395" s="0" t="s">
@@ -15851,7 +15779,7 @@
       <c r="F396" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G396" s="28" t="n">
+      <c r="G396" s="22" t="n">
         <v>9</v>
       </c>
       <c r="I396" s="0" t="s">
@@ -15874,7 +15802,7 @@
       <c r="F397" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G397" s="28" t="s">
+      <c r="G397" s="22" t="s">
         <v>52</v>
       </c>
       <c r="I397" s="0" t="s">
@@ -15900,7 +15828,7 @@
       <c r="F398" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G398" s="28" t="n">
+      <c r="G398" s="22" t="n">
         <v>10</v>
       </c>
       <c r="I398" s="0" t="s">
@@ -15923,7 +15851,7 @@
       <c r="F399" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G399" s="28" t="s">
+      <c r="G399" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I399" s="0" t="s">
@@ -15949,7 +15877,7 @@
       <c r="F400" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G400" s="28" t="n">
+      <c r="G400" s="22" t="n">
         <v>11</v>
       </c>
       <c r="I400" s="0" t="s">
@@ -15972,7 +15900,7 @@
       <c r="F401" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G401" s="28" t="s">
+      <c r="G401" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I401" s="0" t="s">
@@ -15998,7 +15926,7 @@
       <c r="F402" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G402" s="28" t="n">
+      <c r="G402" s="22" t="n">
         <v>12</v>
       </c>
       <c r="I402" s="0" t="s">
@@ -16021,7 +15949,7 @@
       <c r="F403" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G403" s="28" t="s">
+      <c r="G403" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I403" s="0" t="s">
@@ -16047,7 +15975,7 @@
       <c r="F404" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G404" s="28" t="n">
+      <c r="G404" s="22" t="n">
         <v>13</v>
       </c>
       <c r="I404" s="0" t="s">
@@ -16070,7 +15998,7 @@
       <c r="F405" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G405" s="28" t="s">
+      <c r="G405" s="22" t="s">
         <v>72</v>
       </c>
       <c r="I405" s="0" t="s">
@@ -16096,7 +16024,7 @@
       <c r="F406" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G406" s="28" t="n">
+      <c r="G406" s="22" t="n">
         <v>14</v>
       </c>
       <c r="I406" s="0" t="s">
@@ -16119,7 +16047,7 @@
       <c r="F407" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G407" s="28" t="s">
+      <c r="G407" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I407" s="0" t="s">
@@ -16145,7 +16073,7 @@
       <c r="F408" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G408" s="28" t="n">
+      <c r="G408" s="22" t="n">
         <v>15</v>
       </c>
       <c r="I408" s="0" t="s">
@@ -16168,7 +16096,7 @@
       <c r="F409" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G409" s="28" t="s">
+      <c r="G409" s="22" t="s">
         <v>82</v>
       </c>
       <c r="I409" s="0" t="s">
@@ -16194,7 +16122,7 @@
       <c r="F410" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G410" s="28" t="n">
+      <c r="G410" s="22" t="n">
         <v>16</v>
       </c>
       <c r="I410" s="0" t="s">
@@ -16217,7 +16145,7 @@
       <c r="F411" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G411" s="28" t="s">
+      <c r="G411" s="22" t="s">
         <v>87</v>
       </c>
       <c r="I411" s="0" t="s">
@@ -16243,7 +16171,7 @@
       <c r="F412" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G412" s="28" t="n">
+      <c r="G412" s="22" t="n">
         <v>17</v>
       </c>
       <c r="I412" s="0" t="s">
@@ -16266,7 +16194,7 @@
       <c r="F413" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G413" s="28" t="s">
+      <c r="G413" s="22" t="s">
         <v>92</v>
       </c>
       <c r="I413" s="0" t="s">
@@ -16292,7 +16220,7 @@
       <c r="F414" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G414" s="28" t="n">
+      <c r="G414" s="22" t="n">
         <v>18</v>
       </c>
       <c r="I414" s="0" t="s">
@@ -16315,7 +16243,7 @@
       <c r="F415" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G415" s="28" t="s">
+      <c r="G415" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I415" s="0" t="s">
@@ -16341,7 +16269,7 @@
       <c r="F416" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G416" s="28" t="n">
+      <c r="G416" s="22" t="n">
         <v>19</v>
       </c>
       <c r="I416" s="0" t="s">
@@ -16364,7 +16292,7 @@
       <c r="F417" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G417" s="28" t="s">
+      <c r="G417" s="22" t="s">
         <v>102</v>
       </c>
       <c r="I417" s="0" t="s">
@@ -16390,7 +16318,7 @@
       <c r="F418" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G418" s="28" t="n">
+      <c r="G418" s="22" t="n">
         <v>20</v>
       </c>
       <c r="I418" s="0" t="s">
@@ -16413,7 +16341,7 @@
       <c r="F419" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G419" s="28" t="s">
+      <c r="G419" s="22" t="s">
         <v>107</v>
       </c>
       <c r="I419" s="0" t="s">
@@ -16439,7 +16367,7 @@
       <c r="F420" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G420" s="28" t="n">
+      <c r="G420" s="22" t="n">
         <v>21</v>
       </c>
       <c r="I420" s="0" t="s">
@@ -16462,7 +16390,7 @@
       <c r="F421" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G421" s="28" t="s">
+      <c r="G421" s="22" t="s">
         <v>112</v>
       </c>
       <c r="I421" s="0" t="s">
@@ -16488,7 +16416,7 @@
       <c r="F422" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G422" s="28" t="n">
+      <c r="G422" s="22" t="n">
         <v>1</v>
       </c>
       <c r="I422" s="0" t="s">
@@ -16511,7 +16439,7 @@
       <c r="F423" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G423" s="28" t="s">
+      <c r="G423" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I423" s="0" t="s">
@@ -16537,7 +16465,7 @@
       <c r="F424" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G424" s="28" t="n">
+      <c r="G424" s="22" t="n">
         <v>2</v>
       </c>
       <c r="I424" s="0" t="s">
@@ -16560,7 +16488,7 @@
       <c r="F425" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G425" s="28" t="s">
+      <c r="G425" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I425" s="0" t="s">
@@ -16586,7 +16514,7 @@
       <c r="F426" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G426" s="28" t="n">
+      <c r="G426" s="22" t="n">
         <v>3</v>
       </c>
       <c r="I426" s="0" t="s">
@@ -16609,7 +16537,7 @@
       <c r="F427" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G427" s="28" t="s">
+      <c r="G427" s="22" t="s">
         <v>22</v>
       </c>
       <c r="I427" s="0" t="s">
@@ -16635,7 +16563,7 @@
       <c r="F428" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G428" s="28" t="n">
+      <c r="G428" s="22" t="n">
         <v>4</v>
       </c>
       <c r="I428" s="0" t="s">
@@ -16658,7 +16586,7 @@
       <c r="F429" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G429" s="28" t="s">
+      <c r="G429" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I429" s="0" t="s">
@@ -16684,7 +16612,7 @@
       <c r="F430" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G430" s="28" t="n">
+      <c r="G430" s="22" t="n">
         <v>5</v>
       </c>
       <c r="I430" s="0" t="s">
@@ -16707,7 +16635,7 @@
       <c r="F431" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G431" s="28" t="s">
+      <c r="G431" s="22" t="s">
         <v>32</v>
       </c>
       <c r="I431" s="0" t="s">
@@ -16733,7 +16661,7 @@
       <c r="F432" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G432" s="28" t="n">
+      <c r="G432" s="22" t="n">
         <v>6</v>
       </c>
       <c r="I432" s="0" t="s">
@@ -16756,7 +16684,7 @@
       <c r="F433" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G433" s="28" t="s">
+      <c r="G433" s="22" t="s">
         <v>37</v>
       </c>
       <c r="I433" s="0" t="s">
@@ -16782,7 +16710,7 @@
       <c r="F434" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G434" s="28" t="n">
+      <c r="G434" s="22" t="n">
         <v>7</v>
       </c>
       <c r="I434" s="0" t="s">
@@ -16805,7 +16733,7 @@
       <c r="F435" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G435" s="28" t="s">
+      <c r="G435" s="22" t="s">
         <v>42</v>
       </c>
       <c r="I435" s="0" t="s">
@@ -16831,7 +16759,7 @@
       <c r="F436" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G436" s="28" t="n">
+      <c r="G436" s="22" t="n">
         <v>8</v>
       </c>
       <c r="I436" s="0" t="s">
@@ -16854,7 +16782,7 @@
       <c r="F437" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G437" s="28" t="s">
+      <c r="G437" s="22" t="s">
         <v>47</v>
       </c>
       <c r="I437" s="0" t="s">
@@ -16880,7 +16808,7 @@
       <c r="F438" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G438" s="28" t="n">
+      <c r="G438" s="22" t="n">
         <v>9</v>
       </c>
       <c r="I438" s="0" t="s">
@@ -16903,7 +16831,7 @@
       <c r="F439" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G439" s="28" t="s">
+      <c r="G439" s="22" t="s">
         <v>52</v>
       </c>
       <c r="I439" s="0" t="s">
@@ -16929,7 +16857,7 @@
       <c r="F440" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G440" s="28" t="n">
+      <c r="G440" s="22" t="n">
         <v>10</v>
       </c>
       <c r="I440" s="0" t="s">
@@ -16952,7 +16880,7 @@
       <c r="F441" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G441" s="28" t="s">
+      <c r="G441" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I441" s="0" t="s">
@@ -16978,7 +16906,7 @@
       <c r="F442" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G442" s="28" t="n">
+      <c r="G442" s="22" t="n">
         <v>11</v>
       </c>
       <c r="I442" s="0" t="s">
@@ -17001,7 +16929,7 @@
       <c r="F443" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G443" s="28" t="s">
+      <c r="G443" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I443" s="0" t="s">
@@ -17027,7 +16955,7 @@
       <c r="F444" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G444" s="28" t="n">
+      <c r="G444" s="22" t="n">
         <v>12</v>
       </c>
       <c r="I444" s="0" t="s">
@@ -17050,7 +16978,7 @@
       <c r="F445" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G445" s="28" t="s">
+      <c r="G445" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I445" s="0" t="s">
@@ -17076,7 +17004,7 @@
       <c r="F446" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G446" s="28" t="n">
+      <c r="G446" s="22" t="n">
         <v>13</v>
       </c>
       <c r="I446" s="0" t="s">
@@ -17099,7 +17027,7 @@
       <c r="F447" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G447" s="28" t="s">
+      <c r="G447" s="22" t="s">
         <v>72</v>
       </c>
       <c r="I447" s="0" t="s">
@@ -17125,7 +17053,7 @@
       <c r="F448" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G448" s="28" t="n">
+      <c r="G448" s="22" t="n">
         <v>14</v>
       </c>
       <c r="I448" s="0" t="s">
@@ -17148,7 +17076,7 @@
       <c r="F449" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G449" s="28" t="s">
+      <c r="G449" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I449" s="0" t="s">
@@ -17174,7 +17102,7 @@
       <c r="F450" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G450" s="28" t="n">
+      <c r="G450" s="22" t="n">
         <v>15</v>
       </c>
       <c r="I450" s="0" t="s">
@@ -17197,7 +17125,7 @@
       <c r="F451" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G451" s="28" t="s">
+      <c r="G451" s="22" t="s">
         <v>82</v>
       </c>
       <c r="I451" s="0" t="s">
@@ -17223,7 +17151,7 @@
       <c r="F452" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G452" s="28" t="n">
+      <c r="G452" s="22" t="n">
         <v>16</v>
       </c>
       <c r="I452" s="0" t="s">
@@ -17246,7 +17174,7 @@
       <c r="F453" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G453" s="28" t="s">
+      <c r="G453" s="22" t="s">
         <v>87</v>
       </c>
       <c r="I453" s="0" t="s">
@@ -17272,7 +17200,7 @@
       <c r="F454" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G454" s="28" t="n">
+      <c r="G454" s="22" t="n">
         <v>17</v>
       </c>
       <c r="I454" s="0" t="s">
@@ -17295,7 +17223,7 @@
       <c r="F455" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G455" s="28" t="s">
+      <c r="G455" s="22" t="s">
         <v>92</v>
       </c>
       <c r="I455" s="0" t="s">
@@ -17321,7 +17249,7 @@
       <c r="F456" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G456" s="28" t="n">
+      <c r="G456" s="22" t="n">
         <v>18</v>
       </c>
       <c r="I456" s="0" t="s">
@@ -17344,7 +17272,7 @@
       <c r="F457" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G457" s="28" t="s">
+      <c r="G457" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I457" s="0" t="s">
@@ -17370,7 +17298,7 @@
       <c r="F458" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G458" s="28" t="n">
+      <c r="G458" s="22" t="n">
         <v>19</v>
       </c>
     </row>
@@ -17390,7 +17318,7 @@
       <c r="F459" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G459" s="28" t="s">
+      <c r="G459" s="22" t="s">
         <v>102</v>
       </c>
     </row>
@@ -17413,7 +17341,7 @@
       <c r="F460" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G460" s="28" t="n">
+      <c r="G460" s="22" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17433,7 +17361,7 @@
       <c r="F461" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G461" s="28" t="s">
+      <c r="G461" s="22" t="s">
         <v>107</v>
       </c>
     </row>
@@ -17456,7 +17384,7 @@
       <c r="F462" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G462" s="28" t="n">
+      <c r="G462" s="22" t="n">
         <v>21</v>
       </c>
       <c r="I462" s="0" t="s">
@@ -17479,7 +17407,7 @@
       <c r="F463" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G463" s="28" t="s">
+      <c r="G463" s="22" t="s">
         <v>112</v>
       </c>
     </row>
@@ -17502,7 +17430,7 @@
       <c r="F464" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G464" s="28" t="n">
+      <c r="G464" s="22" t="n">
         <v>1</v>
       </c>
       <c r="I464" s="0" t="s">
@@ -17525,7 +17453,7 @@
       <c r="F465" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G465" s="28" t="s">
+      <c r="G465" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I465" s="0" t="s">
@@ -17551,7 +17479,7 @@
       <c r="F466" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G466" s="28" t="n">
+      <c r="G466" s="22" t="n">
         <v>2</v>
       </c>
       <c r="I466" s="0" t="s">
@@ -17574,7 +17502,7 @@
       <c r="F467" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G467" s="28" t="s">
+      <c r="G467" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I467" s="0" t="s">
@@ -17600,7 +17528,7 @@
       <c r="F468" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G468" s="28" t="n">
+      <c r="G468" s="22" t="n">
         <v>3</v>
       </c>
       <c r="I468" s="0" t="s">
@@ -17623,7 +17551,7 @@
       <c r="F469" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G469" s="28" t="s">
+      <c r="G469" s="22" t="s">
         <v>22</v>
       </c>
       <c r="I469" s="0" t="s">
@@ -17649,7 +17577,7 @@
       <c r="F470" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G470" s="28" t="n">
+      <c r="G470" s="22" t="n">
         <v>4</v>
       </c>
       <c r="I470" s="0" t="s">
@@ -17672,7 +17600,7 @@
       <c r="F471" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G471" s="28" t="s">
+      <c r="G471" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I471" s="0" t="s">
@@ -17698,7 +17626,7 @@
       <c r="F472" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G472" s="28" t="n">
+      <c r="G472" s="22" t="n">
         <v>5</v>
       </c>
       <c r="I472" s="0" t="s">
@@ -17721,7 +17649,7 @@
       <c r="F473" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G473" s="28" t="s">
+      <c r="G473" s="22" t="s">
         <v>32</v>
       </c>
       <c r="I473" s="0" t="s">
@@ -17747,7 +17675,7 @@
       <c r="F474" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G474" s="28" t="n">
+      <c r="G474" s="22" t="n">
         <v>6</v>
       </c>
       <c r="I474" s="0" t="s">
@@ -17770,7 +17698,7 @@
       <c r="F475" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G475" s="28" t="s">
+      <c r="G475" s="22" t="s">
         <v>37</v>
       </c>
       <c r="I475" s="0" t="s">
@@ -17796,7 +17724,7 @@
       <c r="F476" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G476" s="28" t="n">
+      <c r="G476" s="22" t="n">
         <v>7</v>
       </c>
       <c r="I476" s="0" t="s">
@@ -17819,7 +17747,7 @@
       <c r="F477" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G477" s="28" t="s">
+      <c r="G477" s="22" t="s">
         <v>42</v>
       </c>
       <c r="I477" s="0" t="s">
@@ -17845,7 +17773,7 @@
       <c r="F478" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G478" s="28" t="n">
+      <c r="G478" s="22" t="n">
         <v>8</v>
       </c>
       <c r="I478" s="0" t="s">
@@ -17868,7 +17796,7 @@
       <c r="F479" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G479" s="28" t="s">
+      <c r="G479" s="22" t="s">
         <v>47</v>
       </c>
       <c r="I479" s="0" t="s">
@@ -17894,7 +17822,7 @@
       <c r="F480" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G480" s="28" t="n">
+      <c r="G480" s="22" t="n">
         <v>9</v>
       </c>
       <c r="I480" s="0" t="s">
@@ -17917,7 +17845,7 @@
       <c r="F481" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G481" s="28" t="s">
+      <c r="G481" s="22" t="s">
         <v>52</v>
       </c>
       <c r="I481" s="0" t="s">
@@ -17943,7 +17871,7 @@
       <c r="F482" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G482" s="28" t="n">
+      <c r="G482" s="22" t="n">
         <v>10</v>
       </c>
       <c r="I482" s="0" t="s">
@@ -17966,7 +17894,7 @@
       <c r="F483" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G483" s="28" t="s">
+      <c r="G483" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I483" s="0" t="s">
@@ -17992,7 +17920,7 @@
       <c r="F484" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G484" s="28" t="n">
+      <c r="G484" s="22" t="n">
         <v>11</v>
       </c>
       <c r="I484" s="0" t="s">
@@ -18015,7 +17943,7 @@
       <c r="F485" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G485" s="28" t="s">
+      <c r="G485" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I485" s="0" t="s">
@@ -18041,7 +17969,7 @@
       <c r="F486" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G486" s="28" t="n">
+      <c r="G486" s="22" t="n">
         <v>12</v>
       </c>
       <c r="I486" s="0" t="s">
@@ -18064,7 +17992,7 @@
       <c r="F487" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G487" s="28" t="s">
+      <c r="G487" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I487" s="0" t="s">
@@ -18090,7 +18018,7 @@
       <c r="F488" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G488" s="28" t="n">
+      <c r="G488" s="22" t="n">
         <v>13</v>
       </c>
       <c r="I488" s="0" t="s">
@@ -18113,7 +18041,7 @@
       <c r="F489" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G489" s="28" t="s">
+      <c r="G489" s="22" t="s">
         <v>72</v>
       </c>
       <c r="I489" s="0" t="s">
@@ -18139,7 +18067,7 @@
       <c r="F490" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G490" s="28" t="n">
+      <c r="G490" s="22" t="n">
         <v>14</v>
       </c>
       <c r="I490" s="0" t="s">
@@ -18162,7 +18090,7 @@
       <c r="F491" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G491" s="28" t="s">
+      <c r="G491" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I491" s="0" t="s">
@@ -18188,7 +18116,7 @@
       <c r="F492" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G492" s="28" t="n">
+      <c r="G492" s="22" t="n">
         <v>15</v>
       </c>
       <c r="I492" s="0" t="s">
@@ -18211,7 +18139,7 @@
       <c r="F493" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G493" s="28" t="s">
+      <c r="G493" s="22" t="s">
         <v>82</v>
       </c>
       <c r="I493" s="0" t="s">
@@ -18237,7 +18165,7 @@
       <c r="F494" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G494" s="28" t="n">
+      <c r="G494" s="22" t="n">
         <v>16</v>
       </c>
       <c r="I494" s="0" t="s">
@@ -18260,7 +18188,7 @@
       <c r="F495" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G495" s="28" t="s">
+      <c r="G495" s="22" t="s">
         <v>87</v>
       </c>
       <c r="I495" s="0" t="s">
@@ -18286,7 +18214,7 @@
       <c r="F496" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G496" s="28" t="n">
+      <c r="G496" s="22" t="n">
         <v>17</v>
       </c>
       <c r="I496" s="0" t="s">
@@ -18309,7 +18237,7 @@
       <c r="F497" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G497" s="28" t="s">
+      <c r="G497" s="22" t="s">
         <v>92</v>
       </c>
       <c r="I497" s="0" t="s">
@@ -18335,7 +18263,7 @@
       <c r="F498" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G498" s="28" t="n">
+      <c r="G498" s="22" t="n">
         <v>18</v>
       </c>
       <c r="I498" s="0" t="s">
@@ -18358,7 +18286,7 @@
       <c r="F499" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G499" s="28" t="s">
+      <c r="G499" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I499" s="0" t="s">
@@ -18384,7 +18312,7 @@
       <c r="F500" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G500" s="28" t="n">
+      <c r="G500" s="22" t="n">
         <v>19</v>
       </c>
       <c r="I500" s="0" t="s">
@@ -18407,7 +18335,7 @@
       <c r="F501" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G501" s="28" t="s">
+      <c r="G501" s="22" t="s">
         <v>102</v>
       </c>
       <c r="I501" s="0" t="s">
@@ -18433,7 +18361,7 @@
       <c r="F502" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G502" s="28" t="n">
+      <c r="G502" s="22" t="n">
         <v>20</v>
       </c>
       <c r="I502" s="0" t="s">
@@ -18456,7 +18384,7 @@
       <c r="F503" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G503" s="28" t="s">
+      <c r="G503" s="22" t="s">
         <v>107</v>
       </c>
       <c r="I503" s="0" t="s">
@@ -18482,7 +18410,7 @@
       <c r="F504" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G504" s="28" t="n">
+      <c r="G504" s="22" t="n">
         <v>21</v>
       </c>
       <c r="I504" s="0" t="s">
@@ -18505,7 +18433,7 @@
       <c r="F505" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G505" s="28" t="s">
+      <c r="G505" s="22" t="s">
         <v>112</v>
       </c>
       <c r="I505" s="0" t="s">
@@ -18531,7 +18459,7 @@
       <c r="F506" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G506" s="28" t="n">
+      <c r="G506" s="22" t="n">
         <v>1</v>
       </c>
       <c r="I506" s="0" t="s">
@@ -18554,7 +18482,7 @@
       <c r="F507" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G507" s="28" t="s">
+      <c r="G507" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I507" s="0" t="s">
@@ -18580,7 +18508,7 @@
       <c r="F508" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G508" s="28" t="n">
+      <c r="G508" s="22" t="n">
         <v>2</v>
       </c>
       <c r="I508" s="0" t="s">
@@ -18603,7 +18531,7 @@
       <c r="F509" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G509" s="28" t="s">
+      <c r="G509" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I509" s="0" t="s">
@@ -18629,7 +18557,7 @@
       <c r="F510" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G510" s="28" t="n">
+      <c r="G510" s="22" t="n">
         <v>3</v>
       </c>
       <c r="I510" s="0" t="s">
@@ -18652,7 +18580,7 @@
       <c r="F511" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G511" s="28" t="s">
+      <c r="G511" s="22" t="s">
         <v>22</v>
       </c>
       <c r="I511" s="0" t="s">
@@ -18678,7 +18606,7 @@
       <c r="F512" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G512" s="28" t="n">
+      <c r="G512" s="22" t="n">
         <v>4</v>
       </c>
       <c r="I512" s="0" t="s">
@@ -18701,7 +18629,7 @@
       <c r="F513" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G513" s="28" t="s">
+      <c r="G513" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I513" s="0" t="s">
@@ -18727,7 +18655,7 @@
       <c r="F514" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G514" s="28" t="n">
+      <c r="G514" s="22" t="n">
         <v>5</v>
       </c>
       <c r="I514" s="0" t="s">
@@ -18750,7 +18678,7 @@
       <c r="F515" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G515" s="28" t="s">
+      <c r="G515" s="22" t="s">
         <v>32</v>
       </c>
       <c r="I515" s="0" t="s">
@@ -18776,7 +18704,7 @@
       <c r="F516" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G516" s="28" t="n">
+      <c r="G516" s="22" t="n">
         <v>6</v>
       </c>
       <c r="I516" s="0" t="s">
@@ -18799,7 +18727,7 @@
       <c r="F517" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G517" s="28" t="s">
+      <c r="G517" s="22" t="s">
         <v>37</v>
       </c>
       <c r="I517" s="0" t="s">
@@ -18825,7 +18753,7 @@
       <c r="F518" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G518" s="28" t="n">
+      <c r="G518" s="22" t="n">
         <v>7</v>
       </c>
       <c r="I518" s="0" t="s">
@@ -18848,7 +18776,7 @@
       <c r="F519" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G519" s="28" t="s">
+      <c r="G519" s="22" t="s">
         <v>42</v>
       </c>
       <c r="I519" s="0" t="s">
@@ -18874,7 +18802,7 @@
       <c r="F520" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G520" s="28" t="n">
+      <c r="G520" s="22" t="n">
         <v>8</v>
       </c>
       <c r="I520" s="0" t="s">
@@ -18897,7 +18825,7 @@
       <c r="F521" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G521" s="28" t="s">
+      <c r="G521" s="22" t="s">
         <v>47</v>
       </c>
       <c r="I521" s="0" t="s">
@@ -18923,7 +18851,7 @@
       <c r="F522" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G522" s="28" t="n">
+      <c r="G522" s="22" t="n">
         <v>9</v>
       </c>
       <c r="I522" s="0" t="s">
@@ -18946,7 +18874,7 @@
       <c r="F523" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G523" s="28" t="s">
+      <c r="G523" s="22" t="s">
         <v>52</v>
       </c>
       <c r="I523" s="0" t="s">
@@ -18972,7 +18900,7 @@
       <c r="F524" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G524" s="28" t="n">
+      <c r="G524" s="22" t="n">
         <v>10</v>
       </c>
       <c r="I524" s="0" t="s">
@@ -18995,7 +18923,7 @@
       <c r="F525" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G525" s="28" t="s">
+      <c r="G525" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I525" s="0" t="s">
@@ -19021,7 +18949,7 @@
       <c r="F526" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G526" s="28" t="n">
+      <c r="G526" s="22" t="n">
         <v>11</v>
       </c>
       <c r="I526" s="0" t="s">
@@ -19044,7 +18972,7 @@
       <c r="F527" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G527" s="28" t="s">
+      <c r="G527" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I527" s="0" t="s">
@@ -19070,7 +18998,7 @@
       <c r="F528" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G528" s="28" t="n">
+      <c r="G528" s="22" t="n">
         <v>12</v>
       </c>
       <c r="I528" s="0" t="s">
@@ -19093,7 +19021,7 @@
       <c r="F529" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G529" s="28" t="s">
+      <c r="G529" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I529" s="0" t="s">
@@ -19119,7 +19047,7 @@
       <c r="F530" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G530" s="28" t="n">
+      <c r="G530" s="22" t="n">
         <v>13</v>
       </c>
       <c r="I530" s="0" t="s">
@@ -19142,7 +19070,7 @@
       <c r="F531" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G531" s="28" t="s">
+      <c r="G531" s="22" t="s">
         <v>72</v>
       </c>
       <c r="I531" s="0" t="s">
@@ -19168,7 +19096,7 @@
       <c r="F532" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G532" s="28" t="n">
+      <c r="G532" s="22" t="n">
         <v>14</v>
       </c>
       <c r="I532" s="0" t="s">
@@ -19191,7 +19119,7 @@
       <c r="F533" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G533" s="28" t="s">
+      <c r="G533" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I533" s="0" t="s">
@@ -19217,7 +19145,7 @@
       <c r="F534" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G534" s="28" t="n">
+      <c r="G534" s="22" t="n">
         <v>15</v>
       </c>
       <c r="I534" s="0" t="s">
@@ -19240,7 +19168,7 @@
       <c r="F535" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G535" s="28" t="s">
+      <c r="G535" s="22" t="s">
         <v>82</v>
       </c>
       <c r="I535" s="0" t="s">
@@ -19266,7 +19194,7 @@
       <c r="F536" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G536" s="28" t="n">
+      <c r="G536" s="22" t="n">
         <v>16</v>
       </c>
       <c r="I536" s="0" t="s">
@@ -19289,7 +19217,7 @@
       <c r="F537" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G537" s="28" t="s">
+      <c r="G537" s="22" t="s">
         <v>87</v>
       </c>
       <c r="I537" s="0" t="s">
@@ -19315,7 +19243,7 @@
       <c r="F538" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G538" s="28" t="n">
+      <c r="G538" s="22" t="n">
         <v>17</v>
       </c>
       <c r="I538" s="0" t="s">
@@ -19338,7 +19266,7 @@
       <c r="F539" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G539" s="28" t="s">
+      <c r="G539" s="22" t="s">
         <v>92</v>
       </c>
       <c r="I539" s="0" t="s">
@@ -19364,7 +19292,7 @@
       <c r="F540" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G540" s="28" t="n">
+      <c r="G540" s="22" t="n">
         <v>18</v>
       </c>
       <c r="I540" s="0" t="s">
@@ -19387,7 +19315,7 @@
       <c r="F541" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G541" s="28" t="s">
+      <c r="G541" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I541" s="0" t="s">
@@ -19413,7 +19341,7 @@
       <c r="F542" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G542" s="28" t="n">
+      <c r="G542" s="22" t="n">
         <v>19</v>
       </c>
       <c r="I542" s="0" t="s">
@@ -19436,7 +19364,7 @@
       <c r="F543" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G543" s="28" t="s">
+      <c r="G543" s="22" t="s">
         <v>102</v>
       </c>
       <c r="I543" s="0" t="s">
@@ -19462,7 +19390,7 @@
       <c r="F544" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G544" s="28" t="n">
+      <c r="G544" s="22" t="n">
         <v>20</v>
       </c>
       <c r="I544" s="0" t="s">
@@ -19485,7 +19413,7 @@
       <c r="F545" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G545" s="28" t="s">
+      <c r="G545" s="22" t="s">
         <v>107</v>
       </c>
       <c r="I545" s="0" t="s">
@@ -19511,7 +19439,7 @@
       <c r="F546" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G546" s="28" t="n">
+      <c r="G546" s="22" t="n">
         <v>21</v>
       </c>
       <c r="I546" s="0" t="s">
@@ -19534,7 +19462,7 @@
       <c r="F547" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G547" s="28" t="s">
+      <c r="G547" s="22" t="s">
         <v>112</v>
       </c>
     </row>
@@ -19554,7 +19482,7 @@
       <c r="F548" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G548" s="28" t="n">
+      <c r="G548" s="22" t="n">
         <v>1</v>
       </c>
       <c r="I548" s="0" t="s">
@@ -19574,7 +19502,7 @@
       <c r="F549" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G549" s="28" t="s">
+      <c r="G549" s="22" t="s">
         <v>12</v>
       </c>
       <c r="I549" s="0" t="s">
@@ -19597,7 +19525,7 @@
       <c r="F550" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G550" s="28" t="n">
+      <c r="G550" s="22" t="n">
         <v>2</v>
       </c>
       <c r="I550" s="0" t="s">
@@ -19617,7 +19545,7 @@
       <c r="F551" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G551" s="28" t="s">
+      <c r="G551" s="22" t="s">
         <v>17</v>
       </c>
       <c r="I551" s="0" t="s">
@@ -19640,7 +19568,7 @@
       <c r="F552" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G552" s="28" t="n">
+      <c r="G552" s="22" t="n">
         <v>3</v>
       </c>
       <c r="I552" s="0" t="s">
@@ -19660,7 +19588,7 @@
       <c r="F553" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G553" s="28" t="s">
+      <c r="G553" s="22" t="s">
         <v>22</v>
       </c>
       <c r="I553" s="0" t="s">
@@ -19683,7 +19611,7 @@
       <c r="F554" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G554" s="28" t="n">
+      <c r="G554" s="22" t="n">
         <v>4</v>
       </c>
       <c r="I554" s="0" t="s">
@@ -19703,7 +19631,7 @@
       <c r="F555" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G555" s="28" t="s">
+      <c r="G555" s="22" t="s">
         <v>27</v>
       </c>
       <c r="I555" s="0" t="s">
@@ -19726,7 +19654,7 @@
       <c r="F556" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G556" s="28" t="n">
+      <c r="G556" s="22" t="n">
         <v>5</v>
       </c>
       <c r="I556" s="0" t="s">
@@ -19746,7 +19674,7 @@
       <c r="F557" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G557" s="28" t="s">
+      <c r="G557" s="22" t="s">
         <v>32</v>
       </c>
       <c r="I557" s="0" t="s">
@@ -19769,7 +19697,7 @@
       <c r="F558" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G558" s="28" t="n">
+      <c r="G558" s="22" t="n">
         <v>6</v>
       </c>
       <c r="I558" s="0" t="s">
@@ -19789,7 +19717,7 @@
       <c r="F559" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G559" s="28" t="s">
+      <c r="G559" s="22" t="s">
         <v>37</v>
       </c>
       <c r="I559" s="0" t="s">
@@ -19812,7 +19740,7 @@
       <c r="F560" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G560" s="28" t="n">
+      <c r="G560" s="22" t="n">
         <v>7</v>
       </c>
       <c r="I560" s="0" t="s">
@@ -19832,7 +19760,7 @@
       <c r="F561" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G561" s="28" t="s">
+      <c r="G561" s="22" t="s">
         <v>42</v>
       </c>
       <c r="I561" s="0" t="s">
@@ -19855,7 +19783,7 @@
       <c r="F562" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G562" s="28" t="n">
+      <c r="G562" s="22" t="n">
         <v>8</v>
       </c>
       <c r="I562" s="0" t="s">
@@ -19875,7 +19803,7 @@
       <c r="F563" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G563" s="28" t="s">
+      <c r="G563" s="22" t="s">
         <v>47</v>
       </c>
       <c r="I563" s="0" t="s">
@@ -19898,7 +19826,7 @@
       <c r="F564" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G564" s="28" t="n">
+      <c r="G564" s="22" t="n">
         <v>9</v>
       </c>
       <c r="I564" s="0" t="s">
@@ -19918,7 +19846,7 @@
       <c r="F565" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G565" s="28" t="s">
+      <c r="G565" s="22" t="s">
         <v>52</v>
       </c>
       <c r="I565" s="0" t="s">
@@ -19941,7 +19869,7 @@
       <c r="F566" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G566" s="28" t="n">
+      <c r="G566" s="22" t="n">
         <v>10</v>
       </c>
       <c r="I566" s="0" t="s">
@@ -19961,7 +19889,7 @@
       <c r="F567" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G567" s="28" t="s">
+      <c r="G567" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I567" s="0" t="s">
@@ -19984,7 +19912,7 @@
       <c r="F568" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G568" s="28" t="n">
+      <c r="G568" s="22" t="n">
         <v>11</v>
       </c>
       <c r="I568" s="0" t="s">
@@ -20004,7 +19932,7 @@
       <c r="F569" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G569" s="28" t="s">
+      <c r="G569" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I569" s="0" t="s">
@@ -20027,7 +19955,7 @@
       <c r="F570" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G570" s="28" t="n">
+      <c r="G570" s="22" t="n">
         <v>12</v>
       </c>
       <c r="I570" s="0" t="s">
@@ -20047,7 +19975,7 @@
       <c r="F571" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G571" s="28" t="s">
+      <c r="G571" s="22" t="s">
         <v>67</v>
       </c>
       <c r="I571" s="0" t="s">
@@ -20070,7 +19998,7 @@
       <c r="F572" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G572" s="28" t="n">
+      <c r="G572" s="22" t="n">
         <v>13</v>
       </c>
       <c r="I572" s="0" t="s">
@@ -20090,7 +20018,7 @@
       <c r="F573" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G573" s="28" t="s">
+      <c r="G573" s="22" t="s">
         <v>72</v>
       </c>
       <c r="I573" s="0" t="s">
@@ -20113,7 +20041,7 @@
       <c r="F574" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G574" s="28" t="n">
+      <c r="G574" s="22" t="n">
         <v>14</v>
       </c>
       <c r="I574" s="0" t="s">
@@ -20133,7 +20061,7 @@
       <c r="F575" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G575" s="28" t="s">
+      <c r="G575" s="22" t="s">
         <v>77</v>
       </c>
       <c r="I575" s="0" t="s">
@@ -20156,7 +20084,7 @@
       <c r="F576" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G576" s="28" t="n">
+      <c r="G576" s="22" t="n">
         <v>15</v>
       </c>
       <c r="I576" s="0" t="s">
@@ -20176,7 +20104,7 @@
       <c r="F577" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G577" s="28" t="s">
+      <c r="G577" s="22" t="s">
         <v>82</v>
       </c>
       <c r="I577" s="0" t="s">
@@ -20199,7 +20127,7 @@
       <c r="F578" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G578" s="28" t="n">
+      <c r="G578" s="22" t="n">
         <v>16</v>
       </c>
       <c r="I578" s="0" t="s">
@@ -20219,7 +20147,7 @@
       <c r="F579" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G579" s="28" t="s">
+      <c r="G579" s="22" t="s">
         <v>87</v>
       </c>
       <c r="I579" s="0" t="s">
@@ -20242,7 +20170,7 @@
       <c r="F580" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G580" s="28" t="n">
+      <c r="G580" s="22" t="n">
         <v>17</v>
       </c>
       <c r="I580" s="0" t="s">
@@ -20262,7 +20190,7 @@
       <c r="F581" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G581" s="28" t="s">
+      <c r="G581" s="22" t="s">
         <v>92</v>
       </c>
       <c r="I581" s="0" t="s">
@@ -20285,7 +20213,7 @@
       <c r="F582" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G582" s="28" t="n">
+      <c r="G582" s="22" t="n">
         <v>18</v>
       </c>
       <c r="I582" s="0" t="s">
@@ -20305,7 +20233,7 @@
       <c r="F583" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G583" s="28" t="s">
+      <c r="G583" s="22" t="s">
         <v>97</v>
       </c>
     </row>
@@ -20325,7 +20253,7 @@
       <c r="F584" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G584" s="28" t="n">
+      <c r="G584" s="22" t="n">
         <v>19</v>
       </c>
     </row>
@@ -20342,7 +20270,7 @@
       <c r="F585" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G585" s="28" t="s">
+      <c r="G585" s="22" t="s">
         <v>102</v>
       </c>
     </row>
@@ -20362,7 +20290,7 @@
       <c r="F586" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G586" s="28" t="n">
+      <c r="G586" s="22" t="n">
         <v>20</v>
       </c>
     </row>
@@ -20379,7 +20307,7 @@
       <c r="F587" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G587" s="28" t="s">
+      <c r="G587" s="22" t="s">
         <v>107</v>
       </c>
     </row>
@@ -20399,7 +20327,7 @@
       <c r="F588" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G588" s="28" t="n">
+      <c r="G588" s="22" t="n">
         <v>21</v>
       </c>
       <c r="I588" s="0" t="s">
@@ -20419,12 +20347,12 @@
       <c r="F589" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G589" s="28" t="s">
+      <c r="G589" s="22" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H547"/>
+  <autoFilter ref="A2:H547"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
